--- a/data/trans_orig/P16-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FE39265F-E4CE-4888-A311-07789115C456}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{26B08307-9359-4185-8F34-1D72AD981160}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{27534D71-DDF7-46F1-BE1D-A816E4B357DA}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3F47A55A-867C-4658-8CF6-1E602487B73F}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="302">
   <si>
     <t>Población que ha utilizado algún tipo de medicamento en las últimas dos semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>60,96%</t>
   </si>
   <si>
-    <t>57,82%</t>
-  </si>
-  <si>
-    <t>63,98%</t>
+    <t>57,94%</t>
+  </si>
+  <si>
+    <t>64,19%</t>
   </si>
   <si>
     <t>76,31%</t>
   </si>
   <si>
-    <t>73,93%</t>
-  </si>
-  <si>
-    <t>78,64%</t>
+    <t>73,83%</t>
+  </si>
+  <si>
+    <t>78,6%</t>
   </si>
   <si>
     <t>69,56%</t>
   </si>
   <si>
-    <t>67,75%</t>
-  </si>
-  <si>
-    <t>71,56%</t>
+    <t>67,55%</t>
+  </si>
+  <si>
+    <t>71,53%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>39,04%</t>
   </si>
   <si>
-    <t>36,02%</t>
-  </si>
-  <si>
-    <t>42,18%</t>
+    <t>35,81%</t>
+  </si>
+  <si>
+    <t>42,06%</t>
   </si>
   <si>
     <t>23,69%</t>
   </si>
   <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>26,07%</t>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>26,17%</t>
   </si>
   <si>
     <t>30,44%</t>
   </si>
   <si>
-    <t>28,44%</t>
-  </si>
-  <si>
-    <t>32,25%</t>
+    <t>28,47%</t>
+  </si>
+  <si>
+    <t>32,45%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,10 +140,10 @@
     <t>30,38%</t>
   </si>
   <si>
-    <t>28,26%</t>
-  </si>
-  <si>
-    <t>32,8%</t>
+    <t>28,29%</t>
+  </si>
+  <si>
+    <t>32,79%</t>
   </si>
   <si>
     <t>46,22%</t>
@@ -152,568 +152,586 @@
     <t>43,83%</t>
   </si>
   <si>
-    <t>48,83%</t>
+    <t>48,72%</t>
   </si>
   <si>
     <t>38,05%</t>
   </si>
   <si>
-    <t>36,26%</t>
+    <t>36,37%</t>
+  </si>
+  <si>
+    <t>39,7%</t>
+  </si>
+  <si>
+    <t>69,62%</t>
+  </si>
+  <si>
+    <t>67,21%</t>
+  </si>
+  <si>
+    <t>71,71%</t>
+  </si>
+  <si>
+    <t>53,78%</t>
+  </si>
+  <si>
+    <t>51,28%</t>
+  </si>
+  <si>
+    <t>56,17%</t>
+  </si>
+  <si>
+    <t>61,95%</t>
+  </si>
+  <si>
+    <t>60,3%</t>
+  </si>
+  <si>
+    <t>63,63%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>33,51%</t>
+  </si>
+  <si>
+    <t>29,55%</t>
+  </si>
+  <si>
+    <t>37,79%</t>
+  </si>
+  <si>
+    <t>50,8%</t>
+  </si>
+  <si>
+    <t>46,17%</t>
+  </si>
+  <si>
+    <t>55,43%</t>
+  </si>
+  <si>
+    <t>41,52%</t>
+  </si>
+  <si>
+    <t>38,44%</t>
+  </si>
+  <si>
+    <t>44,8%</t>
+  </si>
+  <si>
+    <t>66,49%</t>
+  </si>
+  <si>
+    <t>62,21%</t>
+  </si>
+  <si>
+    <t>70,45%</t>
+  </si>
+  <si>
+    <t>49,2%</t>
+  </si>
+  <si>
+    <t>44,57%</t>
+  </si>
+  <si>
+    <t>53,83%</t>
+  </si>
+  <si>
+    <t>58,48%</t>
+  </si>
+  <si>
+    <t>55,2%</t>
+  </si>
+  <si>
+    <t>61,56%</t>
+  </si>
+  <si>
+    <t>40,54%</t>
+  </si>
+  <si>
+    <t>38,96%</t>
+  </si>
+  <si>
+    <t>42,13%</t>
+  </si>
+  <si>
+    <t>58,58%</t>
+  </si>
+  <si>
+    <t>56,84%</t>
+  </si>
+  <si>
+    <t>60,27%</t>
+  </si>
+  <si>
+    <t>49,7%</t>
+  </si>
+  <si>
+    <t>48,47%</t>
+  </si>
+  <si>
+    <t>51,08%</t>
+  </si>
+  <si>
+    <t>59,46%</t>
+  </si>
+  <si>
+    <t>57,87%</t>
+  </si>
+  <si>
+    <t>61,04%</t>
+  </si>
+  <si>
+    <t>41,42%</t>
   </si>
   <si>
     <t>39,73%</t>
   </si>
   <si>
-    <t>69,62%</t>
-  </si>
-  <si>
-    <t>67,2%</t>
-  </si>
-  <si>
-    <t>71,74%</t>
-  </si>
-  <si>
-    <t>53,78%</t>
-  </si>
-  <si>
-    <t>51,17%</t>
-  </si>
-  <si>
-    <t>56,17%</t>
-  </si>
-  <si>
-    <t>61,95%</t>
-  </si>
-  <si>
-    <t>60,27%</t>
-  </si>
-  <si>
-    <t>63,74%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>33,51%</t>
-  </si>
-  <si>
-    <t>29,13%</t>
-  </si>
-  <si>
-    <t>37,58%</t>
-  </si>
-  <si>
-    <t>50,8%</t>
-  </si>
-  <si>
-    <t>46,13%</t>
-  </si>
-  <si>
-    <t>55,54%</t>
-  </si>
-  <si>
-    <t>41,52%</t>
-  </si>
-  <si>
-    <t>38,76%</t>
-  </si>
-  <si>
-    <t>45,03%</t>
-  </si>
-  <si>
-    <t>66,49%</t>
-  </si>
-  <si>
-    <t>62,42%</t>
-  </si>
-  <si>
-    <t>70,87%</t>
-  </si>
-  <si>
-    <t>49,2%</t>
-  </si>
-  <si>
-    <t>44,46%</t>
-  </si>
-  <si>
-    <t>53,87%</t>
-  </si>
-  <si>
-    <t>58,48%</t>
-  </si>
-  <si>
-    <t>54,97%</t>
-  </si>
-  <si>
-    <t>61,24%</t>
-  </si>
-  <si>
-    <t>40,54%</t>
-  </si>
-  <si>
-    <t>38,75%</t>
-  </si>
-  <si>
-    <t>42,26%</t>
-  </si>
-  <si>
-    <t>58,58%</t>
-  </si>
-  <si>
-    <t>56,82%</t>
+    <t>43,16%</t>
+  </si>
+  <si>
+    <t>50,3%</t>
+  </si>
+  <si>
+    <t>48,92%</t>
+  </si>
+  <si>
+    <t>51,53%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha utilizado algún tipo de medicamento en las últimas dos semanas en 2012 (Tasa respuesta: 99,88%)</t>
+  </si>
+  <si>
+    <t>71,85%</t>
+  </si>
+  <si>
+    <t>69,0%</t>
+  </si>
+  <si>
+    <t>74,64%</t>
+  </si>
+  <si>
+    <t>85,09%</t>
+  </si>
+  <si>
+    <t>82,96%</t>
+  </si>
+  <si>
+    <t>86,99%</t>
+  </si>
+  <si>
+    <t>79,51%</t>
+  </si>
+  <si>
+    <t>77,73%</t>
+  </si>
+  <si>
+    <t>81,14%</t>
+  </si>
+  <si>
+    <t>28,15%</t>
+  </si>
+  <si>
+    <t>25,36%</t>
+  </si>
+  <si>
+    <t>31,0%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>22,27%</t>
+  </si>
+  <si>
+    <t>42,14%</t>
+  </si>
+  <si>
+    <t>39,84%</t>
+  </si>
+  <si>
+    <t>44,25%</t>
+  </si>
+  <si>
+    <t>61,89%</t>
+  </si>
+  <si>
+    <t>59,56%</t>
+  </si>
+  <si>
+    <t>64,24%</t>
+  </si>
+  <si>
+    <t>51,47%</t>
+  </si>
+  <si>
+    <t>49,78%</t>
+  </si>
+  <si>
+    <t>53,09%</t>
+  </si>
+  <si>
+    <t>57,86%</t>
+  </si>
+  <si>
+    <t>55,75%</t>
   </si>
   <si>
     <t>60,16%</t>
   </si>
   <si>
-    <t>49,7%</t>
-  </si>
-  <si>
-    <t>48,5%</t>
+    <t>38,11%</t>
+  </si>
+  <si>
+    <t>35,76%</t>
+  </si>
+  <si>
+    <t>40,44%</t>
+  </si>
+  <si>
+    <t>48,53%</t>
+  </si>
+  <si>
+    <t>46,91%</t>
+  </si>
+  <si>
+    <t>50,22%</t>
+  </si>
+  <si>
+    <t>40,78%</t>
+  </si>
+  <si>
+    <t>35,8%</t>
+  </si>
+  <si>
+    <t>45,42%</t>
+  </si>
+  <si>
+    <t>58,77%</t>
+  </si>
+  <si>
+    <t>54,02%</t>
+  </si>
+  <si>
+    <t>63,44%</t>
+  </si>
+  <si>
+    <t>49,55%</t>
+  </si>
+  <si>
+    <t>45,99%</t>
+  </si>
+  <si>
+    <t>53,06%</t>
+  </si>
+  <si>
+    <t>59,22%</t>
+  </si>
+  <si>
+    <t>54,58%</t>
+  </si>
+  <si>
+    <t>64,2%</t>
+  </si>
+  <si>
+    <t>41,23%</t>
+  </si>
+  <si>
+    <t>36,56%</t>
+  </si>
+  <si>
+    <t>45,98%</t>
+  </si>
+  <si>
+    <t>50,45%</t>
+  </si>
+  <si>
+    <t>46,94%</t>
+  </si>
+  <si>
+    <t>54,01%</t>
+  </si>
+  <si>
+    <t>50,43%</t>
+  </si>
+  <si>
+    <t>48,66%</t>
+  </si>
+  <si>
+    <t>52,14%</t>
+  </si>
+  <si>
+    <t>70,22%</t>
+  </si>
+  <si>
+    <t>68,76%</t>
+  </si>
+  <si>
+    <t>71,89%</t>
+  </si>
+  <si>
+    <t>60,52%</t>
+  </si>
+  <si>
+    <t>59,25%</t>
+  </si>
+  <si>
+    <t>61,6%</t>
+  </si>
+  <si>
+    <t>49,57%</t>
+  </si>
+  <si>
+    <t>47,86%</t>
+  </si>
+  <si>
+    <t>51,34%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>28,11%</t>
+  </si>
+  <si>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>39,48%</t>
+  </si>
+  <si>
+    <t>38,4%</t>
+  </si>
+  <si>
+    <t>40,75%</t>
+  </si>
+  <si>
+    <t>Población que ha utilizado algún tipo de medicamento en las últimas dos semanas en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>68,35%</t>
+  </si>
+  <si>
+    <t>64,98%</t>
+  </si>
+  <si>
+    <t>71,69%</t>
+  </si>
+  <si>
+    <t>84,57%</t>
+  </si>
+  <si>
+    <t>82,26%</t>
+  </si>
+  <si>
+    <t>86,77%</t>
+  </si>
+  <si>
+    <t>77,57%</t>
+  </si>
+  <si>
+    <t>75,64%</t>
+  </si>
+  <si>
+    <t>79,58%</t>
+  </si>
+  <si>
+    <t>31,65%</t>
+  </si>
+  <si>
+    <t>28,31%</t>
+  </si>
+  <si>
+    <t>35,02%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>44,17%</t>
+  </si>
+  <si>
+    <t>42,03%</t>
+  </si>
+  <si>
+    <t>46,46%</t>
+  </si>
+  <si>
+    <t>57,67%</t>
+  </si>
+  <si>
+    <t>55,33%</t>
+  </si>
+  <si>
+    <t>59,92%</t>
+  </si>
+  <si>
+    <t>50,78%</t>
+  </si>
+  <si>
+    <t>49,14%</t>
+  </si>
+  <si>
+    <t>52,41%</t>
+  </si>
+  <si>
+    <t>55,83%</t>
+  </si>
+  <si>
+    <t>53,54%</t>
+  </si>
+  <si>
+    <t>57,97%</t>
+  </si>
+  <si>
+    <t>42,33%</t>
+  </si>
+  <si>
+    <t>40,08%</t>
+  </si>
+  <si>
+    <t>44,67%</t>
+  </si>
+  <si>
+    <t>49,22%</t>
+  </si>
+  <si>
+    <t>47,59%</t>
   </si>
   <si>
     <t>50,86%</t>
   </si>
   <si>
-    <t>59,46%</t>
-  </si>
-  <si>
-    <t>57,74%</t>
-  </si>
-  <si>
-    <t>61,25%</t>
-  </si>
-  <si>
-    <t>41,42%</t>
-  </si>
-  <si>
-    <t>39,84%</t>
-  </si>
-  <si>
-    <t>43,18%</t>
-  </si>
-  <si>
-    <t>50,3%</t>
-  </si>
-  <si>
-    <t>49,14%</t>
-  </si>
-  <si>
-    <t>51,5%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha utilizado algún tipo de medicamento en las últimas dos semanas en 2012 (Tasa respuesta: 99,88%)</t>
-  </si>
-  <si>
-    <t>71,85%</t>
-  </si>
-  <si>
-    <t>69,05%</t>
-  </si>
-  <si>
-    <t>74,47%</t>
-  </si>
-  <si>
-    <t>85,09%</t>
-  </si>
-  <si>
-    <t>83,06%</t>
-  </si>
-  <si>
-    <t>87,2%</t>
-  </si>
-  <si>
-    <t>79,51%</t>
-  </si>
-  <si>
-    <t>77,52%</t>
-  </si>
-  <si>
-    <t>81,18%</t>
-  </si>
-  <si>
-    <t>28,15%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>30,95%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>42,14%</t>
-  </si>
-  <si>
-    <t>44,79%</t>
-  </si>
-  <si>
-    <t>61,89%</t>
-  </si>
-  <si>
-    <t>59,75%</t>
-  </si>
-  <si>
-    <t>64,52%</t>
-  </si>
-  <si>
-    <t>51,47%</t>
-  </si>
-  <si>
-    <t>49,78%</t>
-  </si>
-  <si>
-    <t>53,09%</t>
-  </si>
-  <si>
-    <t>57,86%</t>
-  </si>
-  <si>
-    <t>55,21%</t>
-  </si>
-  <si>
-    <t>38,11%</t>
-  </si>
-  <si>
-    <t>35,48%</t>
-  </si>
-  <si>
-    <t>40,25%</t>
-  </si>
-  <si>
-    <t>48,53%</t>
-  </si>
-  <si>
-    <t>46,91%</t>
-  </si>
-  <si>
-    <t>50,22%</t>
-  </si>
-  <si>
-    <t>40,78%</t>
-  </si>
-  <si>
-    <t>35,96%</t>
-  </si>
-  <si>
-    <t>45,87%</t>
-  </si>
-  <si>
-    <t>58,77%</t>
-  </si>
-  <si>
-    <t>53,83%</t>
-  </si>
-  <si>
-    <t>63,79%</t>
-  </si>
-  <si>
-    <t>49,55%</t>
-  </si>
-  <si>
-    <t>53,21%</t>
-  </si>
-  <si>
-    <t>59,22%</t>
-  </si>
-  <si>
-    <t>54,13%</t>
-  </si>
-  <si>
-    <t>64,04%</t>
-  </si>
-  <si>
-    <t>41,23%</t>
-  </si>
-  <si>
-    <t>36,21%</t>
-  </si>
-  <si>
-    <t>46,17%</t>
-  </si>
-  <si>
-    <t>50,45%</t>
-  </si>
-  <si>
-    <t>46,79%</t>
-  </si>
-  <si>
-    <t>50,43%</t>
-  </si>
-  <si>
-    <t>48,72%</t>
-  </si>
-  <si>
-    <t>52,09%</t>
-  </si>
-  <si>
-    <t>70,22%</t>
-  </si>
-  <si>
-    <t>68,51%</t>
-  </si>
-  <si>
-    <t>71,69%</t>
-  </si>
-  <si>
-    <t>60,52%</t>
-  </si>
-  <si>
-    <t>59,29%</t>
-  </si>
-  <si>
-    <t>61,83%</t>
-  </si>
-  <si>
-    <t>49,57%</t>
-  </si>
-  <si>
-    <t>47,91%</t>
-  </si>
-  <si>
-    <t>51,28%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>28,31%</t>
-  </si>
-  <si>
-    <t>31,49%</t>
-  </si>
-  <si>
-    <t>39,48%</t>
-  </si>
-  <si>
-    <t>38,17%</t>
-  </si>
-  <si>
-    <t>40,71%</t>
-  </si>
-  <si>
-    <t>Población que ha utilizado algún tipo de medicamento en las últimas dos semanas en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>68,35%</t>
-  </si>
-  <si>
-    <t>64,88%</t>
-  </si>
-  <si>
-    <t>71,51%</t>
-  </si>
-  <si>
-    <t>84,57%</t>
-  </si>
-  <si>
-    <t>82,27%</t>
-  </si>
-  <si>
-    <t>86,98%</t>
-  </si>
-  <si>
-    <t>77,57%</t>
-  </si>
-  <si>
-    <t>75,56%</t>
-  </si>
-  <si>
-    <t>79,6%</t>
-  </si>
-  <si>
-    <t>31,65%</t>
-  </si>
-  <si>
-    <t>28,49%</t>
-  </si>
-  <si>
-    <t>35,12%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>44,17%</t>
-  </si>
-  <si>
-    <t>41,78%</t>
-  </si>
-  <si>
-    <t>46,33%</t>
-  </si>
-  <si>
-    <t>57,67%</t>
-  </si>
-  <si>
-    <t>55,34%</t>
-  </si>
-  <si>
-    <t>59,92%</t>
-  </si>
-  <si>
-    <t>50,78%</t>
-  </si>
-  <si>
-    <t>49,22%</t>
-  </si>
-  <si>
-    <t>52,36%</t>
-  </si>
-  <si>
-    <t>55,83%</t>
-  </si>
-  <si>
-    <t>53,67%</t>
-  </si>
-  <si>
-    <t>58,22%</t>
-  </si>
-  <si>
-    <t>42,33%</t>
-  </si>
-  <si>
-    <t>40,08%</t>
-  </si>
-  <si>
-    <t>44,66%</t>
-  </si>
-  <si>
-    <t>47,64%</t>
-  </si>
-  <si>
     <t>44,92%</t>
   </si>
   <si>
-    <t>40,43%</t>
-  </si>
-  <si>
-    <t>49,53%</t>
+    <t>40,62%</t>
+  </si>
+  <si>
+    <t>49,97%</t>
   </si>
   <si>
     <t>55,05%</t>
   </si>
   <si>
-    <t>50,88%</t>
-  </si>
-  <si>
-    <t>59,4%</t>
+    <t>50,58%</t>
+  </si>
+  <si>
+    <t>59,09%</t>
   </si>
   <si>
     <t>50,0%</t>
   </si>
   <si>
-    <t>46,94%</t>
-  </si>
-  <si>
-    <t>53,04%</t>
+    <t>46,52%</t>
+  </si>
+  <si>
+    <t>52,91%</t>
   </si>
   <si>
     <t>55,08%</t>
   </si>
   <si>
-    <t>50,47%</t>
-  </si>
-  <si>
-    <t>59,57%</t>
+    <t>50,03%</t>
+  </si>
+  <si>
+    <t>59,38%</t>
   </si>
   <si>
     <t>44,95%</t>
   </si>
   <si>
-    <t>40,6%</t>
-  </si>
-  <si>
-    <t>49,12%</t>
-  </si>
-  <si>
-    <t>46,96%</t>
-  </si>
-  <si>
-    <t>53,06%</t>
-  </si>
-  <si>
-    <t>48,05%</t>
-  </si>
-  <si>
-    <t>51,44%</t>
+    <t>40,91%</t>
+  </si>
+  <si>
+    <t>49,42%</t>
+  </si>
+  <si>
+    <t>47,09%</t>
+  </si>
+  <si>
+    <t>53,48%</t>
+  </si>
+  <si>
+    <t>47,85%</t>
+  </si>
+  <si>
+    <t>51,41%</t>
   </si>
   <si>
     <t>64,84%</t>
   </si>
   <si>
-    <t>63,13%</t>
-  </si>
-  <si>
-    <t>66,42%</t>
+    <t>63,21%</t>
+  </si>
+  <si>
+    <t>66,58%</t>
   </si>
   <si>
     <t>57,44%</t>
   </si>
   <si>
-    <t>56,22%</t>
-  </si>
-  <si>
-    <t>58,56%</t>
-  </si>
-  <si>
-    <t>48,56%</t>
-  </si>
-  <si>
-    <t>51,95%</t>
+    <t>56,16%</t>
+  </si>
+  <si>
+    <t>58,54%</t>
+  </si>
+  <si>
+    <t>48,59%</t>
+  </si>
+  <si>
+    <t>52,15%</t>
   </si>
   <si>
     <t>35,16%</t>
   </si>
   <si>
-    <t>33,58%</t>
-  </si>
-  <si>
-    <t>36,87%</t>
+    <t>33,42%</t>
+  </si>
+  <si>
+    <t>36,79%</t>
   </si>
   <si>
     <t>42,56%</t>
   </si>
   <si>
-    <t>41,44%</t>
-  </si>
-  <si>
-    <t>43,78%</t>
+    <t>41,46%</t>
+  </si>
+  <si>
+    <t>43,84%</t>
   </si>
   <si>
     <t>Población que ha utilizado algún tipo de medicamento en las últimas dos semanas en 2023 (Tasa respuesta: 99,93%)</t>
@@ -722,118 +740,118 @@
     <t>70,52%</t>
   </si>
   <si>
-    <t>66,61%</t>
-  </si>
-  <si>
-    <t>74,28%</t>
+    <t>66,05%</t>
+  </si>
+  <si>
+    <t>74,23%</t>
   </si>
   <si>
     <t>82,88%</t>
   </si>
   <si>
-    <t>80,55%</t>
-  </si>
-  <si>
-    <t>85,15%</t>
+    <t>80,63%</t>
+  </si>
+  <si>
+    <t>85,06%</t>
   </si>
   <si>
     <t>78,01%</t>
   </si>
   <si>
-    <t>75,72%</t>
-  </si>
-  <si>
-    <t>80,04%</t>
+    <t>75,99%</t>
+  </si>
+  <si>
+    <t>79,91%</t>
   </si>
   <si>
     <t>29,48%</t>
   </si>
   <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>33,39%</t>
+    <t>25,77%</t>
+  </si>
+  <si>
+    <t>33,95%</t>
   </si>
   <si>
     <t>17,12%</t>
   </si>
   <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>19,37%</t>
   </si>
   <si>
     <t>21,99%</t>
   </si>
   <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>24,01%</t>
   </si>
   <si>
     <t>47,63%</t>
   </si>
   <si>
-    <t>43,84%</t>
-  </si>
-  <si>
-    <t>50,29%</t>
+    <t>43,33%</t>
+  </si>
+  <si>
+    <t>50,09%</t>
   </si>
   <si>
     <t>60,35%</t>
   </si>
   <si>
-    <t>57,43%</t>
-  </si>
-  <si>
-    <t>67,56%</t>
+    <t>57,29%</t>
+  </si>
+  <si>
+    <t>66,97%</t>
   </si>
   <si>
     <t>54,11%</t>
   </si>
   <si>
-    <t>51,66%</t>
-  </si>
-  <si>
-    <t>57,98%</t>
+    <t>51,84%</t>
+  </si>
+  <si>
+    <t>58,33%</t>
   </si>
   <si>
     <t>52,37%</t>
   </si>
   <si>
-    <t>49,71%</t>
-  </si>
-  <si>
-    <t>56,16%</t>
+    <t>49,91%</t>
+  </si>
+  <si>
+    <t>56,67%</t>
   </si>
   <si>
     <t>39,65%</t>
   </si>
   <si>
-    <t>32,44%</t>
-  </si>
-  <si>
-    <t>42,57%</t>
+    <t>33,03%</t>
+  </si>
+  <si>
+    <t>42,71%</t>
   </si>
   <si>
     <t>45,89%</t>
   </si>
   <si>
-    <t>42,02%</t>
-  </si>
-  <si>
-    <t>48,34%</t>
+    <t>41,67%</t>
+  </si>
+  <si>
+    <t>48,16%</t>
   </si>
   <si>
     <t>52,22%</t>
   </si>
   <si>
-    <t>47,97%</t>
-  </si>
-  <si>
-    <t>56,43%</t>
+    <t>48,13%</t>
+  </si>
+  <si>
+    <t>56,55%</t>
   </si>
   <si>
     <t>57,31%</t>
@@ -842,31 +860,31 @@
     <t>53,85%</t>
   </si>
   <si>
-    <t>60,4%</t>
+    <t>60,64%</t>
   </si>
   <si>
     <t>54,84%</t>
   </si>
   <si>
-    <t>52,21%</t>
-  </si>
-  <si>
-    <t>57,52%</t>
+    <t>52,3%</t>
+  </si>
+  <si>
+    <t>57,57%</t>
   </si>
   <si>
     <t>47,78%</t>
   </si>
   <si>
-    <t>43,57%</t>
-  </si>
-  <si>
-    <t>52,03%</t>
+    <t>43,45%</t>
+  </si>
+  <si>
+    <t>51,87%</t>
   </si>
   <si>
     <t>42,69%</t>
   </si>
   <si>
-    <t>39,6%</t>
+    <t>39,36%</t>
   </si>
   <si>
     <t>46,15%</t>
@@ -875,58 +893,58 @@
     <t>45,16%</t>
   </si>
   <si>
-    <t>42,48%</t>
-  </si>
-  <si>
-    <t>47,79%</t>
-  </si>
-  <si>
-    <t>49,32%</t>
-  </si>
-  <si>
-    <t>54,2%</t>
+    <t>42,43%</t>
+  </si>
+  <si>
+    <t>47,7%</t>
+  </si>
+  <si>
+    <t>48,98%</t>
+  </si>
+  <si>
+    <t>54,23%</t>
   </si>
   <si>
     <t>64,72%</t>
   </si>
   <si>
-    <t>62,84%</t>
-  </si>
-  <si>
-    <t>68,24%</t>
+    <t>62,88%</t>
+  </si>
+  <si>
+    <t>68,06%</t>
   </si>
   <si>
     <t>58,83%</t>
   </si>
   <si>
-    <t>57,16%</t>
-  </si>
-  <si>
-    <t>61,05%</t>
-  </si>
-  <si>
-    <t>45,8%</t>
-  </si>
-  <si>
-    <t>50,68%</t>
+    <t>56,99%</t>
+  </si>
+  <si>
+    <t>61,03%</t>
+  </si>
+  <si>
+    <t>45,77%</t>
+  </si>
+  <si>
+    <t>51,02%</t>
   </si>
   <si>
     <t>35,28%</t>
   </si>
   <si>
-    <t>31,76%</t>
-  </si>
-  <si>
-    <t>37,16%</t>
+    <t>31,94%</t>
+  </si>
+  <si>
+    <t>37,12%</t>
   </si>
   <si>
     <t>41,17%</t>
   </si>
   <si>
-    <t>38,95%</t>
-  </si>
-  <si>
-    <t>42,84%</t>
+    <t>38,97%</t>
+  </si>
+  <si>
+    <t>43,01%</t>
   </si>
 </sst>
 </file>
@@ -1338,7 +1356,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83E7A86C-BD49-4C99-BDB5-EA7CDA1CEB6C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A52B0C02-F65C-4929-A875-734884534134}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1954,7 +1972,7 @@
         <v>3268</v>
       </c>
       <c r="N13" s="7">
-        <v>3307338</v>
+        <v>3307339</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>75</v>
@@ -1975,7 +1993,7 @@
         <v>1878</v>
       </c>
       <c r="D14" s="7">
-        <v>1947662</v>
+        <v>1947663</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>78</v>
@@ -2026,7 +2044,7 @@
         <v>3213</v>
       </c>
       <c r="D15" s="7">
-        <v>3275525</v>
+        <v>3275526</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2056,7 +2074,7 @@
         <v>6510</v>
       </c>
       <c r="N15" s="7">
-        <v>6654722</v>
+        <v>6654723</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2089,7 +2107,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B884A69-1365-4C5C-BC3C-F95984D3F991}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5FFDF48-F462-4F18-A74D-F7C2DAEAEECC}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2371,10 +2389,10 @@
         <v>107</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H7" s="7">
         <v>1003</v>
@@ -2383,13 +2401,13 @@
         <v>1087293</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M7" s="7">
         <v>1770</v>
@@ -2398,13 +2416,13 @@
         <v>1913258</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2419,13 +2437,13 @@
         <v>1134057</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>74</v>
+        <v>118</v>
       </c>
       <c r="H8" s="7">
         <v>631</v>
@@ -2434,13 +2452,13 @@
         <v>669619</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M8" s="7">
         <v>1716</v>
@@ -2449,13 +2467,13 @@
         <v>1803676</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2523,13 +2541,13 @@
         <v>195864</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H10" s="7">
         <v>238</v>
@@ -2538,13 +2556,13 @@
         <v>268949</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M10" s="7">
         <v>408</v>
@@ -2553,13 +2571,13 @@
         <v>464814</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2574,13 +2592,13 @@
         <v>284468</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="H11" s="7">
         <v>173</v>
@@ -2589,13 +2607,13 @@
         <v>188705</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="M11" s="7">
         <v>440</v>
@@ -2604,13 +2622,13 @@
         <v>473172</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2678,28 +2696,28 @@
         <v>1722131</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="H13" s="7">
         <v>2308</v>
       </c>
       <c r="I13" s="7">
-        <v>2493660</v>
+        <v>2493659</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="M13" s="7">
         <v>3891</v>
@@ -2708,13 +2726,13 @@
         <v>4215791</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2729,13 +2747,13 @@
         <v>1692866</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="H14" s="7">
         <v>983</v>
@@ -2744,13 +2762,13 @@
         <v>1057669</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="M14" s="7">
         <v>2597</v>
@@ -2759,13 +2777,13 @@
         <v>2750535</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2792,7 +2810,7 @@
         <v>3291</v>
       </c>
       <c r="I15" s="7">
-        <v>3551329</v>
+        <v>3551328</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2840,7 +2858,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB5EE825-32C8-4EAA-A245-ED288941F329}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A57CEDD1-5FF0-4EC9-B3FC-267ED62F3D1C}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2857,7 +2875,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2964,13 +2982,13 @@
         <v>515590</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="H4" s="7">
         <v>745</v>
@@ -2979,13 +2997,13 @@
         <v>841159</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="M4" s="7">
         <v>1275</v>
@@ -2994,13 +3012,13 @@
         <v>1356749</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3015,13 +3033,13 @@
         <v>238757</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="H5" s="7">
         <v>147</v>
@@ -3030,13 +3048,13 @@
         <v>153501</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="M5" s="7">
         <v>379</v>
@@ -3045,13 +3063,13 @@
         <v>392258</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3119,13 +3137,13 @@
         <v>917243</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="H7" s="7">
         <v>1076</v>
@@ -3134,13 +3152,13 @@
         <v>1146737</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="M7" s="7">
         <v>1933</v>
@@ -3149,13 +3167,13 @@
         <v>2063980</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3170,13 +3188,13 @@
         <v>1159142</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="H8" s="7">
         <v>832</v>
@@ -3185,13 +3203,13 @@
         <v>841563</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="M8" s="7">
         <v>1927</v>
@@ -3200,13 +3218,13 @@
         <v>2000705</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3274,13 +3292,13 @@
         <v>245683</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="H10" s="7">
         <v>282</v>
@@ -3289,13 +3307,13 @@
         <v>302316</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="M10" s="7">
         <v>505</v>
@@ -3304,13 +3322,13 @@
         <v>547999</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3325,13 +3343,13 @@
         <v>301203</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="H11" s="7">
         <v>244</v>
@@ -3340,13 +3358,13 @@
         <v>246824</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="M11" s="7">
         <v>522</v>
@@ -3355,13 +3373,13 @@
         <v>548027</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3432,10 +3450,10 @@
         <v>75</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="H13" s="7">
         <v>2103</v>
@@ -3444,13 +3462,13 @@
         <v>2290212</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="M13" s="7">
         <v>3713</v>
@@ -3459,13 +3477,13 @@
         <v>3968729</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3483,10 +3501,10 @@
         <v>84</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="H14" s="7">
         <v>1223</v>
@@ -3495,13 +3513,13 @@
         <v>1241888</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="M14" s="7">
         <v>2828</v>
@@ -3510,13 +3528,13 @@
         <v>2940989</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3591,7 +3609,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0371CBDB-C1EF-42DA-B5CB-5076C12E97DD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A91042D-206B-4285-9461-D1A1CAC02A28}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3608,7 +3626,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3715,13 +3733,13 @@
         <v>381937</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="H4" s="7">
         <v>1209</v>
@@ -3730,13 +3748,13 @@
         <v>690001</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="M4" s="7">
         <v>1718</v>
@@ -3745,13 +3763,13 @@
         <v>1071938</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3766,13 +3784,13 @@
         <v>159697</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="H5" s="7">
         <v>216</v>
@@ -3781,13 +3799,13 @@
         <v>142548</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="M5" s="7">
         <v>398</v>
@@ -3796,13 +3814,13 @@
         <v>302245</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3870,13 +3888,13 @@
         <v>1029830</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="H7" s="7">
         <v>1849</v>
@@ -3885,13 +3903,13 @@
         <v>1357073</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="M7" s="7">
         <v>2942</v>
@@ -3900,13 +3918,13 @@
         <v>2386902</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3921,28 +3939,28 @@
         <v>1132192</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="H8" s="7">
         <v>1071</v>
       </c>
       <c r="I8" s="7">
-        <v>891723</v>
+        <v>891722</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="M8" s="7">
         <v>1970</v>
@@ -3951,13 +3969,13 @@
         <v>2023915</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3984,7 +4002,7 @@
         <v>2920</v>
       </c>
       <c r="I9" s="7">
-        <v>2248796</v>
+        <v>2248795</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4025,13 +4043,13 @@
         <v>351428</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="H10" s="7">
         <v>602</v>
@@ -4040,13 +4058,13 @@
         <v>409117</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="M10" s="7">
         <v>983</v>
@@ -4055,13 +4073,13 @@
         <v>760546</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4076,13 +4094,13 @@
         <v>321611</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="H11" s="7">
         <v>402</v>
@@ -4091,13 +4109,13 @@
         <v>304769</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="M11" s="7">
         <v>702</v>
@@ -4106,13 +4124,13 @@
         <v>626380</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4180,13 +4198,13 @@
         <v>1763195</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="H13" s="7">
         <v>3660</v>
@@ -4195,13 +4213,13 @@
         <v>2456191</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="M13" s="7">
         <v>5643</v>
@@ -4210,13 +4228,13 @@
         <v>4219387</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4228,16 +4246,16 @@
         <v>1381</v>
       </c>
       <c r="D14" s="7">
-        <v>1613500</v>
+        <v>1613499</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="H14" s="7">
         <v>1689</v>
@@ -4246,13 +4264,13 @@
         <v>1339040</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="M14" s="7">
         <v>3070</v>
@@ -4261,13 +4279,13 @@
         <v>2952539</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4279,7 +4297,7 @@
         <v>3364</v>
       </c>
       <c r="D15" s="7">
-        <v>3376695</v>
+        <v>3376694</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/P16-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{26B08307-9359-4185-8F34-1D72AD981160}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{67B1AC8A-A2EA-4D8F-8DB1-ED6A7BC63F13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3F47A55A-867C-4658-8CF6-1E602487B73F}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CC251386-C23C-417F-A0BD-5A0F0E6CE276}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="300">
   <si>
     <t>Población que ha utilizado algún tipo de medicamento en las últimas dos semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>60,96%</t>
   </si>
   <si>
-    <t>57,94%</t>
-  </si>
-  <si>
-    <t>64,19%</t>
+    <t>58,02%</t>
+  </si>
+  <si>
+    <t>64,2%</t>
   </si>
   <si>
     <t>76,31%</t>
   </si>
   <si>
-    <t>73,83%</t>
-  </si>
-  <si>
-    <t>78,6%</t>
+    <t>73,95%</t>
+  </si>
+  <si>
+    <t>78,52%</t>
   </si>
   <si>
     <t>69,56%</t>
   </si>
   <si>
-    <t>67,55%</t>
-  </si>
-  <si>
-    <t>71,53%</t>
+    <t>67,5%</t>
+  </si>
+  <si>
+    <t>71,24%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>39,04%</t>
   </si>
   <si>
-    <t>35,81%</t>
-  </si>
-  <si>
-    <t>42,06%</t>
+    <t>35,8%</t>
+  </si>
+  <si>
+    <t>41,98%</t>
   </si>
   <si>
     <t>23,69%</t>
   </si>
   <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>26,17%</t>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
   </si>
   <si>
     <t>30,44%</t>
   </si>
   <si>
-    <t>28,47%</t>
-  </si>
-  <si>
-    <t>32,45%</t>
+    <t>28,76%</t>
+  </si>
+  <si>
+    <t>32,5%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,19 +140,19 @@
     <t>30,38%</t>
   </si>
   <si>
-    <t>28,29%</t>
-  </si>
-  <si>
-    <t>32,79%</t>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>32,53%</t>
   </si>
   <si>
     <t>46,22%</t>
   </si>
   <si>
-    <t>43,83%</t>
-  </si>
-  <si>
-    <t>48,72%</t>
+    <t>43,73%</t>
+  </si>
+  <si>
+    <t>48,71%</t>
   </si>
   <si>
     <t>38,05%</t>
@@ -161,31 +161,31 @@
     <t>36,37%</t>
   </si>
   <si>
-    <t>39,7%</t>
+    <t>39,85%</t>
   </si>
   <si>
     <t>69,62%</t>
   </si>
   <si>
-    <t>67,21%</t>
-  </si>
-  <si>
-    <t>71,71%</t>
+    <t>67,47%</t>
+  </si>
+  <si>
+    <t>71,81%</t>
   </si>
   <si>
     <t>53,78%</t>
   </si>
   <si>
-    <t>51,28%</t>
-  </si>
-  <si>
-    <t>56,17%</t>
+    <t>51,29%</t>
+  </si>
+  <si>
+    <t>56,27%</t>
   </si>
   <si>
     <t>61,95%</t>
   </si>
   <si>
-    <t>60,3%</t>
+    <t>60,15%</t>
   </si>
   <si>
     <t>63,63%</t>
@@ -197,109 +197,109 @@
     <t>33,51%</t>
   </si>
   <si>
-    <t>29,55%</t>
-  </si>
-  <si>
-    <t>37,79%</t>
+    <t>29,73%</t>
+  </si>
+  <si>
+    <t>37,49%</t>
   </si>
   <si>
     <t>50,8%</t>
   </si>
   <si>
-    <t>46,17%</t>
-  </si>
-  <si>
-    <t>55,43%</t>
+    <t>46,03%</t>
+  </si>
+  <si>
+    <t>55,44%</t>
   </si>
   <si>
     <t>41,52%</t>
   </si>
   <si>
-    <t>38,44%</t>
-  </si>
-  <si>
-    <t>44,8%</t>
+    <t>38,31%</t>
+  </si>
+  <si>
+    <t>44,42%</t>
   </si>
   <si>
     <t>66,49%</t>
   </si>
   <si>
-    <t>62,21%</t>
-  </si>
-  <si>
-    <t>70,45%</t>
+    <t>62,51%</t>
+  </si>
+  <si>
+    <t>70,27%</t>
   </si>
   <si>
     <t>49,2%</t>
   </si>
   <si>
-    <t>44,57%</t>
-  </si>
-  <si>
-    <t>53,83%</t>
+    <t>44,56%</t>
+  </si>
+  <si>
+    <t>53,97%</t>
   </si>
   <si>
     <t>58,48%</t>
   </si>
   <si>
-    <t>55,2%</t>
-  </si>
-  <si>
-    <t>61,56%</t>
+    <t>55,58%</t>
+  </si>
+  <si>
+    <t>61,69%</t>
   </si>
   <si>
     <t>40,54%</t>
   </si>
   <si>
-    <t>38,96%</t>
-  </si>
-  <si>
-    <t>42,13%</t>
+    <t>38,82%</t>
+  </si>
+  <si>
+    <t>42,25%</t>
   </si>
   <si>
     <t>58,58%</t>
   </si>
   <si>
-    <t>56,84%</t>
-  </si>
-  <si>
-    <t>60,27%</t>
+    <t>56,88%</t>
+  </si>
+  <si>
+    <t>60,22%</t>
   </si>
   <si>
     <t>49,7%</t>
   </si>
   <si>
-    <t>48,47%</t>
-  </si>
-  <si>
-    <t>51,08%</t>
+    <t>48,36%</t>
+  </si>
+  <si>
+    <t>50,88%</t>
   </si>
   <si>
     <t>59,46%</t>
   </si>
   <si>
-    <t>57,87%</t>
-  </si>
-  <si>
-    <t>61,04%</t>
+    <t>57,75%</t>
+  </si>
+  <si>
+    <t>61,18%</t>
   </si>
   <si>
     <t>41,42%</t>
   </si>
   <si>
-    <t>39,73%</t>
-  </si>
-  <si>
-    <t>43,16%</t>
+    <t>39,78%</t>
+  </si>
+  <si>
+    <t>43,12%</t>
   </si>
   <si>
     <t>50,3%</t>
   </si>
   <si>
-    <t>48,92%</t>
-  </si>
-  <si>
-    <t>51,53%</t>
+    <t>49,12%</t>
+  </si>
+  <si>
+    <t>51,64%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -311,19 +311,19 @@
     <t>71,85%</t>
   </si>
   <si>
-    <t>69,0%</t>
-  </si>
-  <si>
-    <t>74,64%</t>
+    <t>68,8%</t>
+  </si>
+  <si>
+    <t>74,6%</t>
   </si>
   <si>
     <t>85,09%</t>
   </si>
   <si>
-    <t>82,96%</t>
-  </si>
-  <si>
-    <t>86,99%</t>
+    <t>82,79%</t>
+  </si>
+  <si>
+    <t>87,04%</t>
   </si>
   <si>
     <t>79,51%</t>
@@ -332,31 +332,31 @@
     <t>77,73%</t>
   </si>
   <si>
-    <t>81,14%</t>
+    <t>81,16%</t>
   </si>
   <si>
     <t>28,15%</t>
   </si>
   <si>
-    <t>25,36%</t>
-  </si>
-  <si>
-    <t>31,0%</t>
+    <t>25,4%</t>
+  </si>
+  <si>
+    <t>31,2%</t>
   </si>
   <si>
     <t>14,91%</t>
   </si>
   <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
   </si>
   <si>
     <t>20,49%</t>
   </si>
   <si>
-    <t>18,86%</t>
+    <t>18,84%</t>
   </si>
   <si>
     <t>22,27%</t>
@@ -365,331 +365,331 @@
     <t>42,14%</t>
   </si>
   <si>
-    <t>39,84%</t>
-  </si>
-  <si>
-    <t>44,25%</t>
+    <t>39,77%</t>
+  </si>
+  <si>
+    <t>44,53%</t>
   </si>
   <si>
     <t>61,89%</t>
   </si>
   <si>
-    <t>59,56%</t>
-  </si>
-  <si>
-    <t>64,24%</t>
+    <t>59,33%</t>
+  </si>
+  <si>
+    <t>64,09%</t>
   </si>
   <si>
     <t>51,47%</t>
   </si>
   <si>
-    <t>49,78%</t>
-  </si>
-  <si>
-    <t>53,09%</t>
+    <t>49,77%</t>
+  </si>
+  <si>
+    <t>53,1%</t>
   </si>
   <si>
     <t>57,86%</t>
   </si>
   <si>
-    <t>55,75%</t>
-  </si>
-  <si>
-    <t>60,16%</t>
+    <t>55,47%</t>
+  </si>
+  <si>
+    <t>60,23%</t>
   </si>
   <si>
     <t>38,11%</t>
   </si>
   <si>
-    <t>35,76%</t>
-  </si>
-  <si>
-    <t>40,44%</t>
+    <t>35,91%</t>
+  </si>
+  <si>
+    <t>40,67%</t>
   </si>
   <si>
     <t>48,53%</t>
   </si>
   <si>
-    <t>46,91%</t>
-  </si>
-  <si>
-    <t>50,22%</t>
+    <t>46,9%</t>
+  </si>
+  <si>
+    <t>50,23%</t>
   </si>
   <si>
     <t>40,78%</t>
   </si>
   <si>
-    <t>35,8%</t>
-  </si>
-  <si>
-    <t>45,42%</t>
+    <t>36,24%</t>
+  </si>
+  <si>
+    <t>46,02%</t>
   </si>
   <si>
     <t>58,77%</t>
   </si>
   <si>
-    <t>54,02%</t>
-  </si>
-  <si>
-    <t>63,44%</t>
+    <t>54,17%</t>
+  </si>
+  <si>
+    <t>64,06%</t>
   </si>
   <si>
     <t>49,55%</t>
   </si>
   <si>
-    <t>45,99%</t>
-  </si>
-  <si>
-    <t>53,06%</t>
+    <t>45,77%</t>
+  </si>
+  <si>
+    <t>52,9%</t>
   </si>
   <si>
     <t>59,22%</t>
   </si>
   <si>
-    <t>54,58%</t>
-  </si>
-  <si>
-    <t>64,2%</t>
+    <t>53,98%</t>
+  </si>
+  <si>
+    <t>63,76%</t>
   </si>
   <si>
     <t>41,23%</t>
   </si>
   <si>
-    <t>36,56%</t>
-  </si>
-  <si>
-    <t>45,98%</t>
+    <t>35,94%</t>
+  </si>
+  <si>
+    <t>45,83%</t>
   </si>
   <si>
     <t>50,45%</t>
   </si>
   <si>
-    <t>46,94%</t>
-  </si>
-  <si>
-    <t>54,01%</t>
+    <t>47,1%</t>
+  </si>
+  <si>
+    <t>54,23%</t>
   </si>
   <si>
     <t>50,43%</t>
   </si>
   <si>
-    <t>48,66%</t>
-  </si>
-  <si>
-    <t>52,14%</t>
+    <t>48,7%</t>
+  </si>
+  <si>
+    <t>52,17%</t>
   </si>
   <si>
     <t>70,22%</t>
   </si>
   <si>
-    <t>68,76%</t>
-  </si>
-  <si>
-    <t>71,89%</t>
+    <t>68,61%</t>
+  </si>
+  <si>
+    <t>71,82%</t>
   </si>
   <si>
     <t>60,52%</t>
   </si>
   <si>
-    <t>59,25%</t>
-  </si>
-  <si>
-    <t>61,6%</t>
+    <t>59,24%</t>
+  </si>
+  <si>
+    <t>61,64%</t>
   </si>
   <si>
     <t>49,57%</t>
   </si>
   <si>
-    <t>47,86%</t>
-  </si>
-  <si>
-    <t>51,34%</t>
+    <t>47,83%</t>
+  </si>
+  <si>
+    <t>51,3%</t>
   </si>
   <si>
     <t>29,78%</t>
   </si>
   <si>
-    <t>28,11%</t>
-  </si>
-  <si>
-    <t>31,24%</t>
+    <t>28,18%</t>
+  </si>
+  <si>
+    <t>31,39%</t>
   </si>
   <si>
     <t>39,48%</t>
   </si>
   <si>
-    <t>38,4%</t>
-  </si>
-  <si>
-    <t>40,75%</t>
-  </si>
-  <si>
-    <t>Población que ha utilizado algún tipo de medicamento en las últimas dos semanas en 2015 (Tasa respuesta: 100,0%)</t>
+    <t>38,36%</t>
+  </si>
+  <si>
+    <t>40,76%</t>
+  </si>
+  <si>
+    <t>Población que ha utilizado algún tipo de medicamento en las últimas dos semanas en 2016 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>68,35%</t>
   </si>
   <si>
-    <t>64,98%</t>
-  </si>
-  <si>
-    <t>71,69%</t>
+    <t>64,74%</t>
+  </si>
+  <si>
+    <t>71,5%</t>
   </si>
   <si>
     <t>84,57%</t>
   </si>
   <si>
-    <t>82,26%</t>
-  </si>
-  <si>
-    <t>86,77%</t>
+    <t>82,16%</t>
+  </si>
+  <si>
+    <t>86,82%</t>
   </si>
   <si>
     <t>77,57%</t>
   </si>
   <si>
-    <t>75,64%</t>
-  </si>
-  <si>
-    <t>79,58%</t>
+    <t>75,45%</t>
+  </si>
+  <si>
+    <t>79,32%</t>
   </si>
   <si>
     <t>31,65%</t>
   </si>
   <si>
-    <t>28,31%</t>
-  </si>
-  <si>
-    <t>35,02%</t>
+    <t>28,5%</t>
+  </si>
+  <si>
+    <t>35,26%</t>
   </si>
   <si>
     <t>15,43%</t>
   </si>
   <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
   </si>
   <si>
     <t>22,43%</t>
   </si>
   <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
   </si>
   <si>
     <t>44,17%</t>
   </si>
   <si>
-    <t>42,03%</t>
-  </si>
-  <si>
-    <t>46,46%</t>
+    <t>41,86%</t>
+  </si>
+  <si>
+    <t>46,26%</t>
   </si>
   <si>
     <t>57,67%</t>
   </si>
   <si>
-    <t>55,33%</t>
-  </si>
-  <si>
-    <t>59,92%</t>
+    <t>55,13%</t>
+  </si>
+  <si>
+    <t>59,7%</t>
   </si>
   <si>
     <t>50,78%</t>
   </si>
   <si>
-    <t>49,14%</t>
-  </si>
-  <si>
-    <t>52,41%</t>
+    <t>49,04%</t>
+  </si>
+  <si>
+    <t>52,34%</t>
   </si>
   <si>
     <t>55,83%</t>
   </si>
   <si>
-    <t>53,54%</t>
-  </si>
-  <si>
-    <t>57,97%</t>
+    <t>53,74%</t>
+  </si>
+  <si>
+    <t>58,14%</t>
   </si>
   <si>
     <t>42,33%</t>
   </si>
   <si>
-    <t>40,08%</t>
-  </si>
-  <si>
-    <t>44,67%</t>
+    <t>40,3%</t>
+  </si>
+  <si>
+    <t>44,87%</t>
   </si>
   <si>
     <t>49,22%</t>
   </si>
   <si>
-    <t>47,59%</t>
-  </si>
-  <si>
-    <t>50,86%</t>
+    <t>47,66%</t>
+  </si>
+  <si>
+    <t>50,96%</t>
   </si>
   <si>
     <t>44,92%</t>
   </si>
   <si>
-    <t>40,62%</t>
-  </si>
-  <si>
-    <t>49,97%</t>
+    <t>40,89%</t>
+  </si>
+  <si>
+    <t>49,32%</t>
   </si>
   <si>
     <t>55,05%</t>
   </si>
   <si>
-    <t>50,58%</t>
-  </si>
-  <si>
-    <t>59,09%</t>
+    <t>50,73%</t>
+  </si>
+  <si>
+    <t>59,48%</t>
   </si>
   <si>
     <t>50,0%</t>
   </si>
   <si>
-    <t>46,52%</t>
-  </si>
-  <si>
-    <t>52,91%</t>
+    <t>47,08%</t>
+  </si>
+  <si>
+    <t>52,99%</t>
   </si>
   <si>
     <t>55,08%</t>
   </si>
   <si>
-    <t>50,03%</t>
-  </si>
-  <si>
-    <t>59,38%</t>
+    <t>50,68%</t>
+  </si>
+  <si>
+    <t>59,11%</t>
   </si>
   <si>
     <t>44,95%</t>
   </si>
   <si>
-    <t>40,91%</t>
-  </si>
-  <si>
-    <t>49,42%</t>
-  </si>
-  <si>
-    <t>47,09%</t>
-  </si>
-  <si>
-    <t>53,48%</t>
-  </si>
-  <si>
-    <t>47,85%</t>
-  </si>
-  <si>
-    <t>51,41%</t>
+    <t>40,52%</t>
+  </si>
+  <si>
+    <t>49,27%</t>
+  </si>
+  <si>
+    <t>47,01%</t>
+  </si>
+  <si>
+    <t>52,92%</t>
+  </si>
+  <si>
+    <t>47,89%</t>
+  </si>
+  <si>
+    <t>51,35%</t>
   </si>
   <si>
     <t>64,84%</t>
@@ -698,28 +698,28 @@
     <t>63,21%</t>
   </si>
   <si>
-    <t>66,58%</t>
+    <t>66,42%</t>
   </si>
   <si>
     <t>57,44%</t>
   </si>
   <si>
-    <t>56,16%</t>
-  </si>
-  <si>
-    <t>58,54%</t>
-  </si>
-  <si>
-    <t>48,59%</t>
-  </si>
-  <si>
-    <t>52,15%</t>
+    <t>56,22%</t>
+  </si>
+  <si>
+    <t>58,57%</t>
+  </si>
+  <si>
+    <t>48,65%</t>
+  </si>
+  <si>
+    <t>52,11%</t>
   </si>
   <si>
     <t>35,16%</t>
   </si>
   <si>
-    <t>33,42%</t>
+    <t>33,58%</t>
   </si>
   <si>
     <t>36,79%</t>
@@ -728,10 +728,10 @@
     <t>42,56%</t>
   </si>
   <si>
-    <t>41,46%</t>
-  </si>
-  <si>
-    <t>43,84%</t>
+    <t>41,43%</t>
+  </si>
+  <si>
+    <t>43,78%</t>
   </si>
   <si>
     <t>Población que ha utilizado algún tipo de medicamento en las últimas dos semanas en 2023 (Tasa respuesta: 99,93%)</t>
@@ -902,9 +902,6 @@
     <t>48,98%</t>
   </si>
   <si>
-    <t>54,23%</t>
-  </si>
-  <si>
     <t>64,72%</t>
   </si>
   <si>
@@ -921,9 +918,6 @@
   </si>
   <si>
     <t>61,03%</t>
-  </si>
-  <si>
-    <t>45,77%</t>
   </si>
   <si>
     <t>51,02%</t>
@@ -1356,7 +1350,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A52B0C02-F65C-4929-A875-734884534134}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01A1B376-3347-4B7F-8A42-4B08CACDC0FC}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1993,7 +1987,7 @@
         <v>1878</v>
       </c>
       <c r="D14" s="7">
-        <v>1947663</v>
+        <v>1947662</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>78</v>
@@ -2044,7 +2038,7 @@
         <v>3213</v>
       </c>
       <c r="D15" s="7">
-        <v>3275526</v>
+        <v>3275525</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2107,7 +2101,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5FFDF48-F462-4F18-A74D-F7C2DAEAEECC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB031408-E727-4F0C-8A40-9217140A7D97}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2708,7 +2702,7 @@
         <v>2308</v>
       </c>
       <c r="I13" s="7">
-        <v>2493659</v>
+        <v>2493660</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>146</v>
@@ -2810,7 +2804,7 @@
         <v>3291</v>
       </c>
       <c r="I15" s="7">
-        <v>3551328</v>
+        <v>3551329</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2858,7 +2852,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A57CEDD1-5FF0-4EC9-B3FC-267ED62F3D1C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{734B7A60-511D-43AD-88C0-15702FA6E9D1}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3609,7 +3603,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A91042D-206B-4285-9461-D1A1CAC02A28}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26302C3C-668E-45D0-A2DA-006D385E0D01}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4204,7 +4198,7 @@
         <v>286</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>287</v>
+        <v>142</v>
       </c>
       <c r="H13" s="7">
         <v>3660</v>
@@ -4213,13 +4207,13 @@
         <v>2456191</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>290</v>
       </c>
       <c r="M13" s="7">
         <v>5643</v>
@@ -4228,13 +4222,13 @@
         <v>4219387</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>292</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4252,10 +4246,10 @@
         <v>277</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>294</v>
+        <v>132</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="H14" s="7">
         <v>1689</v>
@@ -4264,13 +4258,13 @@
         <v>1339040</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>296</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>298</v>
       </c>
       <c r="M14" s="7">
         <v>3070</v>
@@ -4279,13 +4273,13 @@
         <v>2952539</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>299</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P16-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{67B1AC8A-A2EA-4D8F-8DB1-ED6A7BC63F13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{16FE5622-B6EB-415C-A0A8-B349FD8D7BC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CC251386-C23C-417F-A0BD-5A0F0E6CE276}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7A6C7D4C-BC54-4E39-8722-6C123B097886}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="296">
   <si>
     <t>Población que ha utilizado algún tipo de medicamento en las últimas dos semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -71,34 +71,34 @@
     <t>Primarios</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>60,96%</t>
   </si>
   <si>
-    <t>58,02%</t>
-  </si>
-  <si>
-    <t>64,2%</t>
+    <t>57,82%</t>
+  </si>
+  <si>
+    <t>63,98%</t>
   </si>
   <si>
     <t>76,31%</t>
   </si>
   <si>
-    <t>73,95%</t>
-  </si>
-  <si>
-    <t>78,52%</t>
+    <t>73,93%</t>
+  </si>
+  <si>
+    <t>78,64%</t>
   </si>
   <si>
     <t>69,56%</t>
   </si>
   <si>
-    <t>67,5%</t>
-  </si>
-  <si>
-    <t>71,24%</t>
+    <t>67,75%</t>
+  </si>
+  <si>
+    <t>71,56%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>39,04%</t>
   </si>
   <si>
-    <t>35,8%</t>
-  </si>
-  <si>
-    <t>41,98%</t>
+    <t>36,02%</t>
+  </si>
+  <si>
+    <t>42,18%</t>
   </si>
   <si>
     <t>23,69%</t>
   </si>
   <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>26,07%</t>
   </si>
   <si>
     <t>30,44%</t>
   </si>
   <si>
-    <t>28,76%</t>
-  </si>
-  <si>
-    <t>32,5%</t>
+    <t>28,44%</t>
+  </si>
+  <si>
+    <t>32,25%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>30,38%</t>
   </si>
   <si>
-    <t>28,19%</t>
-  </si>
-  <si>
-    <t>32,53%</t>
+    <t>28,26%</t>
+  </si>
+  <si>
+    <t>32,8%</t>
   </si>
   <si>
     <t>46,22%</t>
   </si>
   <si>
-    <t>43,73%</t>
-  </si>
-  <si>
-    <t>48,71%</t>
+    <t>43,83%</t>
+  </si>
+  <si>
+    <t>48,83%</t>
   </si>
   <si>
     <t>38,05%</t>
   </si>
   <si>
-    <t>36,37%</t>
-  </si>
-  <si>
-    <t>39,85%</t>
+    <t>36,26%</t>
+  </si>
+  <si>
+    <t>39,73%</t>
   </si>
   <si>
     <t>69,62%</t>
   </si>
   <si>
-    <t>67,47%</t>
-  </si>
-  <si>
-    <t>71,81%</t>
+    <t>67,2%</t>
+  </si>
+  <si>
+    <t>71,74%</t>
   </si>
   <si>
     <t>53,78%</t>
   </si>
   <si>
-    <t>51,29%</t>
-  </si>
-  <si>
-    <t>56,27%</t>
+    <t>51,17%</t>
+  </si>
+  <si>
+    <t>56,17%</t>
   </si>
   <si>
     <t>61,95%</t>
   </si>
   <si>
-    <t>60,15%</t>
-  </si>
-  <si>
-    <t>63,63%</t>
+    <t>60,27%</t>
+  </si>
+  <si>
+    <t>63,74%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -197,748 +197,736 @@
     <t>33,51%</t>
   </si>
   <si>
-    <t>29,73%</t>
-  </si>
-  <si>
-    <t>37,49%</t>
+    <t>29,13%</t>
+  </si>
+  <si>
+    <t>37,58%</t>
   </si>
   <si>
     <t>50,8%</t>
   </si>
   <si>
-    <t>46,03%</t>
-  </si>
-  <si>
-    <t>55,44%</t>
+    <t>46,13%</t>
+  </si>
+  <si>
+    <t>55,54%</t>
   </si>
   <si>
     <t>41,52%</t>
   </si>
   <si>
-    <t>38,31%</t>
-  </si>
-  <si>
-    <t>44,42%</t>
+    <t>38,76%</t>
+  </si>
+  <si>
+    <t>45,03%</t>
   </si>
   <si>
     <t>66,49%</t>
   </si>
   <si>
-    <t>62,51%</t>
-  </si>
-  <si>
-    <t>70,27%</t>
+    <t>62,42%</t>
+  </si>
+  <si>
+    <t>70,87%</t>
   </si>
   <si>
     <t>49,2%</t>
   </si>
   <si>
-    <t>44,56%</t>
-  </si>
-  <si>
-    <t>53,97%</t>
+    <t>44,46%</t>
+  </si>
+  <si>
+    <t>53,87%</t>
   </si>
   <si>
     <t>58,48%</t>
   </si>
   <si>
-    <t>55,58%</t>
-  </si>
-  <si>
-    <t>61,69%</t>
+    <t>54,97%</t>
+  </si>
+  <si>
+    <t>61,24%</t>
   </si>
   <si>
     <t>40,54%</t>
   </si>
   <si>
-    <t>38,82%</t>
-  </si>
-  <si>
-    <t>42,25%</t>
+    <t>38,75%</t>
+  </si>
+  <si>
+    <t>42,26%</t>
   </si>
   <si>
     <t>58,58%</t>
   </si>
   <si>
-    <t>56,88%</t>
-  </si>
-  <si>
-    <t>60,22%</t>
+    <t>56,82%</t>
+  </si>
+  <si>
+    <t>60,16%</t>
   </si>
   <si>
     <t>49,7%</t>
   </si>
   <si>
-    <t>48,36%</t>
+    <t>48,5%</t>
+  </si>
+  <si>
+    <t>50,86%</t>
+  </si>
+  <si>
+    <t>59,46%</t>
+  </si>
+  <si>
+    <t>57,74%</t>
+  </si>
+  <si>
+    <t>61,25%</t>
+  </si>
+  <si>
+    <t>41,42%</t>
+  </si>
+  <si>
+    <t>39,84%</t>
+  </si>
+  <si>
+    <t>43,18%</t>
+  </si>
+  <si>
+    <t>50,3%</t>
+  </si>
+  <si>
+    <t>49,14%</t>
+  </si>
+  <si>
+    <t>51,5%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha utilizado algún tipo de medicamento en las últimas dos semanas en 2012 (Tasa respuesta: 99,88%)</t>
+  </si>
+  <si>
+    <t>71,85%</t>
+  </si>
+  <si>
+    <t>69,05%</t>
+  </si>
+  <si>
+    <t>74,47%</t>
+  </si>
+  <si>
+    <t>85,09%</t>
+  </si>
+  <si>
+    <t>83,06%</t>
+  </si>
+  <si>
+    <t>87,2%</t>
+  </si>
+  <si>
+    <t>79,51%</t>
+  </si>
+  <si>
+    <t>77,52%</t>
+  </si>
+  <si>
+    <t>81,18%</t>
+  </si>
+  <si>
+    <t>28,15%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>30,95%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>22,48%</t>
+  </si>
+  <si>
+    <t>42,14%</t>
+  </si>
+  <si>
+    <t>44,79%</t>
+  </si>
+  <si>
+    <t>61,89%</t>
+  </si>
+  <si>
+    <t>59,75%</t>
+  </si>
+  <si>
+    <t>64,52%</t>
+  </si>
+  <si>
+    <t>51,47%</t>
+  </si>
+  <si>
+    <t>49,78%</t>
+  </si>
+  <si>
+    <t>53,09%</t>
+  </si>
+  <si>
+    <t>57,86%</t>
+  </si>
+  <si>
+    <t>55,21%</t>
+  </si>
+  <si>
+    <t>38,11%</t>
+  </si>
+  <si>
+    <t>35,48%</t>
+  </si>
+  <si>
+    <t>40,25%</t>
+  </si>
+  <si>
+    <t>48,53%</t>
+  </si>
+  <si>
+    <t>46,91%</t>
+  </si>
+  <si>
+    <t>50,22%</t>
+  </si>
+  <si>
+    <t>40,78%</t>
+  </si>
+  <si>
+    <t>35,96%</t>
+  </si>
+  <si>
+    <t>45,87%</t>
+  </si>
+  <si>
+    <t>58,77%</t>
+  </si>
+  <si>
+    <t>53,83%</t>
+  </si>
+  <si>
+    <t>63,79%</t>
+  </si>
+  <si>
+    <t>49,55%</t>
+  </si>
+  <si>
+    <t>53,21%</t>
+  </si>
+  <si>
+    <t>59,22%</t>
+  </si>
+  <si>
+    <t>54,13%</t>
+  </si>
+  <si>
+    <t>64,04%</t>
+  </si>
+  <si>
+    <t>41,23%</t>
+  </si>
+  <si>
+    <t>36,21%</t>
+  </si>
+  <si>
+    <t>46,17%</t>
+  </si>
+  <si>
+    <t>50,45%</t>
+  </si>
+  <si>
+    <t>46,79%</t>
+  </si>
+  <si>
+    <t>50,43%</t>
+  </si>
+  <si>
+    <t>48,72%</t>
+  </si>
+  <si>
+    <t>52,09%</t>
+  </si>
+  <si>
+    <t>70,22%</t>
+  </si>
+  <si>
+    <t>68,51%</t>
+  </si>
+  <si>
+    <t>71,69%</t>
+  </si>
+  <si>
+    <t>60,52%</t>
+  </si>
+  <si>
+    <t>59,29%</t>
+  </si>
+  <si>
+    <t>61,83%</t>
+  </si>
+  <si>
+    <t>49,57%</t>
+  </si>
+  <si>
+    <t>47,91%</t>
+  </si>
+  <si>
+    <t>51,28%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>28,31%</t>
+  </si>
+  <si>
+    <t>31,49%</t>
+  </si>
+  <si>
+    <t>39,48%</t>
+  </si>
+  <si>
+    <t>38,17%</t>
+  </si>
+  <si>
+    <t>40,71%</t>
+  </si>
+  <si>
+    <t>Población que ha utilizado algún tipo de medicamento en las últimas dos semanas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>68,35%</t>
+  </si>
+  <si>
+    <t>64,88%</t>
+  </si>
+  <si>
+    <t>71,51%</t>
+  </si>
+  <si>
+    <t>84,57%</t>
+  </si>
+  <si>
+    <t>82,27%</t>
+  </si>
+  <si>
+    <t>86,98%</t>
+  </si>
+  <si>
+    <t>77,57%</t>
+  </si>
+  <si>
+    <t>75,56%</t>
+  </si>
+  <si>
+    <t>79,6%</t>
+  </si>
+  <si>
+    <t>31,65%</t>
+  </si>
+  <si>
+    <t>28,49%</t>
+  </si>
+  <si>
+    <t>35,12%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>44,17%</t>
+  </si>
+  <si>
+    <t>41,78%</t>
+  </si>
+  <si>
+    <t>46,33%</t>
+  </si>
+  <si>
+    <t>57,67%</t>
+  </si>
+  <si>
+    <t>55,34%</t>
+  </si>
+  <si>
+    <t>59,92%</t>
+  </si>
+  <si>
+    <t>50,78%</t>
+  </si>
+  <si>
+    <t>49,22%</t>
+  </si>
+  <si>
+    <t>52,36%</t>
+  </si>
+  <si>
+    <t>55,83%</t>
+  </si>
+  <si>
+    <t>53,67%</t>
+  </si>
+  <si>
+    <t>58,22%</t>
+  </si>
+  <si>
+    <t>42,33%</t>
+  </si>
+  <si>
+    <t>40,08%</t>
+  </si>
+  <si>
+    <t>44,66%</t>
+  </si>
+  <si>
+    <t>47,64%</t>
+  </si>
+  <si>
+    <t>44,92%</t>
+  </si>
+  <si>
+    <t>40,43%</t>
+  </si>
+  <si>
+    <t>49,53%</t>
+  </si>
+  <si>
+    <t>55,05%</t>
   </si>
   <si>
     <t>50,88%</t>
   </si>
   <si>
-    <t>59,46%</t>
-  </si>
-  <si>
-    <t>57,75%</t>
-  </si>
-  <si>
-    <t>61,18%</t>
-  </si>
-  <si>
-    <t>41,42%</t>
-  </si>
-  <si>
-    <t>39,78%</t>
-  </si>
-  <si>
-    <t>43,12%</t>
-  </si>
-  <si>
-    <t>50,3%</t>
+    <t>59,4%</t>
+  </si>
+  <si>
+    <t>50,0%</t>
+  </si>
+  <si>
+    <t>46,94%</t>
+  </si>
+  <si>
+    <t>53,04%</t>
+  </si>
+  <si>
+    <t>55,08%</t>
+  </si>
+  <si>
+    <t>50,47%</t>
+  </si>
+  <si>
+    <t>59,57%</t>
+  </si>
+  <si>
+    <t>44,95%</t>
+  </si>
+  <si>
+    <t>40,6%</t>
   </si>
   <si>
     <t>49,12%</t>
   </si>
   <si>
-    <t>51,64%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha utilizado algún tipo de medicamento en las últimas dos semanas en 2012 (Tasa respuesta: 99,88%)</t>
-  </si>
-  <si>
-    <t>71,85%</t>
-  </si>
-  <si>
-    <t>68,8%</t>
-  </si>
-  <si>
-    <t>74,6%</t>
-  </si>
-  <si>
-    <t>85,09%</t>
-  </si>
-  <si>
-    <t>82,79%</t>
-  </si>
-  <si>
-    <t>87,04%</t>
-  </si>
-  <si>
-    <t>79,51%</t>
-  </si>
-  <si>
-    <t>77,73%</t>
-  </si>
-  <si>
-    <t>81,16%</t>
-  </si>
-  <si>
-    <t>28,15%</t>
-  </si>
-  <si>
-    <t>25,4%</t>
-  </si>
-  <si>
-    <t>31,2%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>22,27%</t>
-  </si>
-  <si>
-    <t>42,14%</t>
-  </si>
-  <si>
-    <t>39,77%</t>
-  </si>
-  <si>
-    <t>44,53%</t>
-  </si>
-  <si>
-    <t>61,89%</t>
-  </si>
-  <si>
-    <t>59,33%</t>
-  </si>
-  <si>
-    <t>64,09%</t>
-  </si>
-  <si>
-    <t>51,47%</t>
-  </si>
-  <si>
-    <t>49,77%</t>
-  </si>
-  <si>
-    <t>53,1%</t>
-  </si>
-  <si>
-    <t>57,86%</t>
-  </si>
-  <si>
-    <t>55,47%</t>
-  </si>
-  <si>
-    <t>60,23%</t>
-  </si>
-  <si>
-    <t>38,11%</t>
-  </si>
-  <si>
-    <t>35,91%</t>
-  </si>
-  <si>
-    <t>40,67%</t>
-  </si>
-  <si>
-    <t>48,53%</t>
-  </si>
-  <si>
-    <t>46,9%</t>
-  </si>
-  <si>
-    <t>50,23%</t>
-  </si>
-  <si>
-    <t>40,78%</t>
-  </si>
-  <si>
-    <t>36,24%</t>
-  </si>
-  <si>
-    <t>46,02%</t>
-  </si>
-  <si>
-    <t>58,77%</t>
-  </si>
-  <si>
-    <t>54,17%</t>
-  </si>
-  <si>
-    <t>64,06%</t>
-  </si>
-  <si>
-    <t>49,55%</t>
-  </si>
-  <si>
-    <t>45,77%</t>
-  </si>
-  <si>
-    <t>52,9%</t>
-  </si>
-  <si>
-    <t>59,22%</t>
-  </si>
-  <si>
-    <t>53,98%</t>
-  </si>
-  <si>
-    <t>63,76%</t>
-  </si>
-  <si>
-    <t>41,23%</t>
-  </si>
-  <si>
-    <t>35,94%</t>
-  </si>
-  <si>
-    <t>45,83%</t>
-  </si>
-  <si>
-    <t>50,45%</t>
-  </si>
-  <si>
-    <t>47,1%</t>
-  </si>
-  <si>
-    <t>54,23%</t>
-  </si>
-  <si>
-    <t>50,43%</t>
-  </si>
-  <si>
-    <t>48,7%</t>
-  </si>
-  <si>
-    <t>52,17%</t>
-  </si>
-  <si>
-    <t>70,22%</t>
-  </si>
-  <si>
-    <t>68,61%</t>
-  </si>
-  <si>
-    <t>71,82%</t>
-  </si>
-  <si>
-    <t>60,52%</t>
-  </si>
-  <si>
-    <t>59,24%</t>
-  </si>
-  <si>
-    <t>61,64%</t>
-  </si>
-  <si>
-    <t>49,57%</t>
-  </si>
-  <si>
-    <t>47,83%</t>
-  </si>
-  <si>
-    <t>51,3%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>28,18%</t>
-  </si>
-  <si>
-    <t>31,39%</t>
-  </si>
-  <si>
-    <t>39,48%</t>
-  </si>
-  <si>
-    <t>38,36%</t>
-  </si>
-  <si>
-    <t>40,76%</t>
-  </si>
-  <si>
-    <t>Población que ha utilizado algún tipo de medicamento en las últimas dos semanas en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>68,35%</t>
-  </si>
-  <si>
-    <t>64,74%</t>
-  </si>
-  <si>
-    <t>71,5%</t>
-  </si>
-  <si>
-    <t>84,57%</t>
-  </si>
-  <si>
-    <t>82,16%</t>
-  </si>
-  <si>
-    <t>86,82%</t>
-  </si>
-  <si>
-    <t>77,57%</t>
-  </si>
-  <si>
-    <t>75,45%</t>
-  </si>
-  <si>
-    <t>79,32%</t>
-  </si>
-  <si>
-    <t>31,65%</t>
-  </si>
-  <si>
-    <t>28,5%</t>
-  </si>
-  <si>
-    <t>35,26%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
-  </si>
-  <si>
-    <t>44,17%</t>
-  </si>
-  <si>
-    <t>41,86%</t>
-  </si>
-  <si>
-    <t>46,26%</t>
-  </si>
-  <si>
-    <t>57,67%</t>
-  </si>
-  <si>
-    <t>55,13%</t>
-  </si>
-  <si>
-    <t>59,7%</t>
-  </si>
-  <si>
-    <t>50,78%</t>
-  </si>
-  <si>
-    <t>49,04%</t>
-  </si>
-  <si>
-    <t>52,34%</t>
-  </si>
-  <si>
-    <t>55,83%</t>
-  </si>
-  <si>
-    <t>53,74%</t>
-  </si>
-  <si>
-    <t>58,14%</t>
-  </si>
-  <si>
-    <t>42,33%</t>
-  </si>
-  <si>
-    <t>40,3%</t>
-  </si>
-  <si>
-    <t>44,87%</t>
-  </si>
-  <si>
-    <t>49,22%</t>
-  </si>
-  <si>
-    <t>47,66%</t>
-  </si>
-  <si>
-    <t>50,96%</t>
-  </si>
-  <si>
-    <t>44,92%</t>
-  </si>
-  <si>
-    <t>40,89%</t>
+    <t>46,96%</t>
+  </si>
+  <si>
+    <t>53,06%</t>
+  </si>
+  <si>
+    <t>48,05%</t>
+  </si>
+  <si>
+    <t>51,44%</t>
+  </si>
+  <si>
+    <t>64,84%</t>
+  </si>
+  <si>
+    <t>63,13%</t>
+  </si>
+  <si>
+    <t>66,42%</t>
+  </si>
+  <si>
+    <t>57,44%</t>
+  </si>
+  <si>
+    <t>56,22%</t>
+  </si>
+  <si>
+    <t>58,56%</t>
+  </si>
+  <si>
+    <t>48,56%</t>
+  </si>
+  <si>
+    <t>51,95%</t>
+  </si>
+  <si>
+    <t>35,16%</t>
+  </si>
+  <si>
+    <t>33,58%</t>
+  </si>
+  <si>
+    <t>36,87%</t>
+  </si>
+  <si>
+    <t>42,56%</t>
+  </si>
+  <si>
+    <t>41,44%</t>
+  </si>
+  <si>
+    <t>43,78%</t>
+  </si>
+  <si>
+    <t>Población que ha utilizado algún tipo de medicamento en las últimas dos semanas en 2023 (Tasa respuesta: 99,93%)</t>
+  </si>
+  <si>
+    <t>70,52%</t>
+  </si>
+  <si>
+    <t>66,61%</t>
+  </si>
+  <si>
+    <t>74,28%</t>
+  </si>
+  <si>
+    <t>82,88%</t>
+  </si>
+  <si>
+    <t>80,55%</t>
+  </si>
+  <si>
+    <t>85,15%</t>
+  </si>
+  <si>
+    <t>78,01%</t>
+  </si>
+  <si>
+    <t>75,72%</t>
+  </si>
+  <si>
+    <t>80,04%</t>
+  </si>
+  <si>
+    <t>29,48%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>33,39%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>47,63%</t>
+  </si>
+  <si>
+    <t>43,84%</t>
+  </si>
+  <si>
+    <t>50,29%</t>
+  </si>
+  <si>
+    <t>60,35%</t>
+  </si>
+  <si>
+    <t>57,43%</t>
+  </si>
+  <si>
+    <t>67,56%</t>
+  </si>
+  <si>
+    <t>54,11%</t>
+  </si>
+  <si>
+    <t>51,66%</t>
+  </si>
+  <si>
+    <t>57,98%</t>
+  </si>
+  <si>
+    <t>52,37%</t>
+  </si>
+  <si>
+    <t>49,71%</t>
+  </si>
+  <si>
+    <t>56,16%</t>
+  </si>
+  <si>
+    <t>39,65%</t>
+  </si>
+  <si>
+    <t>32,44%</t>
+  </si>
+  <si>
+    <t>42,57%</t>
+  </si>
+  <si>
+    <t>45,89%</t>
+  </si>
+  <si>
+    <t>42,02%</t>
+  </si>
+  <si>
+    <t>48,34%</t>
+  </si>
+  <si>
+    <t>52,22%</t>
+  </si>
+  <si>
+    <t>47,97%</t>
+  </si>
+  <si>
+    <t>56,43%</t>
+  </si>
+  <si>
+    <t>57,31%</t>
+  </si>
+  <si>
+    <t>53,85%</t>
+  </si>
+  <si>
+    <t>60,4%</t>
+  </si>
+  <si>
+    <t>54,84%</t>
+  </si>
+  <si>
+    <t>52,21%</t>
+  </si>
+  <si>
+    <t>57,52%</t>
+  </si>
+  <si>
+    <t>47,78%</t>
+  </si>
+  <si>
+    <t>43,57%</t>
+  </si>
+  <si>
+    <t>52,03%</t>
+  </si>
+  <si>
+    <t>42,69%</t>
+  </si>
+  <si>
+    <t>39,6%</t>
+  </si>
+  <si>
+    <t>46,15%</t>
+  </si>
+  <si>
+    <t>45,16%</t>
+  </si>
+  <si>
+    <t>42,48%</t>
+  </si>
+  <si>
+    <t>47,79%</t>
   </si>
   <si>
     <t>49,32%</t>
   </si>
   <si>
-    <t>55,05%</t>
-  </si>
-  <si>
-    <t>50,73%</t>
-  </si>
-  <si>
-    <t>59,48%</t>
-  </si>
-  <si>
-    <t>50,0%</t>
-  </si>
-  <si>
-    <t>47,08%</t>
-  </si>
-  <si>
-    <t>52,99%</t>
-  </si>
-  <si>
-    <t>55,08%</t>
+    <t>54,2%</t>
+  </si>
+  <si>
+    <t>64,72%</t>
+  </si>
+  <si>
+    <t>62,84%</t>
+  </si>
+  <si>
+    <t>68,24%</t>
+  </si>
+  <si>
+    <t>58,83%</t>
+  </si>
+  <si>
+    <t>57,16%</t>
+  </si>
+  <si>
+    <t>61,05%</t>
+  </si>
+  <si>
+    <t>45,8%</t>
   </si>
   <si>
     <t>50,68%</t>
   </si>
   <si>
-    <t>59,11%</t>
-  </si>
-  <si>
-    <t>44,95%</t>
-  </si>
-  <si>
-    <t>40,52%</t>
-  </si>
-  <si>
-    <t>49,27%</t>
-  </si>
-  <si>
-    <t>47,01%</t>
-  </si>
-  <si>
-    <t>52,92%</t>
-  </si>
-  <si>
-    <t>47,89%</t>
-  </si>
-  <si>
-    <t>51,35%</t>
-  </si>
-  <si>
-    <t>64,84%</t>
-  </si>
-  <si>
-    <t>63,21%</t>
-  </si>
-  <si>
-    <t>66,42%</t>
-  </si>
-  <si>
-    <t>57,44%</t>
-  </si>
-  <si>
-    <t>56,22%</t>
-  </si>
-  <si>
-    <t>58,57%</t>
-  </si>
-  <si>
-    <t>48,65%</t>
-  </si>
-  <si>
-    <t>52,11%</t>
-  </si>
-  <si>
-    <t>35,16%</t>
-  </si>
-  <si>
-    <t>33,58%</t>
-  </si>
-  <si>
-    <t>36,79%</t>
-  </si>
-  <si>
-    <t>42,56%</t>
-  </si>
-  <si>
-    <t>41,43%</t>
-  </si>
-  <si>
-    <t>43,78%</t>
-  </si>
-  <si>
-    <t>Población que ha utilizado algún tipo de medicamento en las últimas dos semanas en 2023 (Tasa respuesta: 99,93%)</t>
-  </si>
-  <si>
-    <t>70,52%</t>
-  </si>
-  <si>
-    <t>66,05%</t>
-  </si>
-  <si>
-    <t>74,23%</t>
-  </si>
-  <si>
-    <t>82,88%</t>
-  </si>
-  <si>
-    <t>80,63%</t>
-  </si>
-  <si>
-    <t>85,06%</t>
-  </si>
-  <si>
-    <t>78,01%</t>
-  </si>
-  <si>
-    <t>75,99%</t>
-  </si>
-  <si>
-    <t>79,91%</t>
-  </si>
-  <si>
-    <t>29,48%</t>
-  </si>
-  <si>
-    <t>25,77%</t>
-  </si>
-  <si>
-    <t>33,95%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>19,37%</t>
-  </si>
-  <si>
-    <t>21,99%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>24,01%</t>
-  </si>
-  <si>
-    <t>47,63%</t>
-  </si>
-  <si>
-    <t>43,33%</t>
-  </si>
-  <si>
-    <t>50,09%</t>
-  </si>
-  <si>
-    <t>60,35%</t>
-  </si>
-  <si>
-    <t>57,29%</t>
-  </si>
-  <si>
-    <t>66,97%</t>
-  </si>
-  <si>
-    <t>54,11%</t>
-  </si>
-  <si>
-    <t>51,84%</t>
-  </si>
-  <si>
-    <t>58,33%</t>
-  </si>
-  <si>
-    <t>52,37%</t>
-  </si>
-  <si>
-    <t>49,91%</t>
-  </si>
-  <si>
-    <t>56,67%</t>
-  </si>
-  <si>
-    <t>39,65%</t>
-  </si>
-  <si>
-    <t>33,03%</t>
-  </si>
-  <si>
-    <t>42,71%</t>
-  </si>
-  <si>
-    <t>45,89%</t>
-  </si>
-  <si>
-    <t>41,67%</t>
-  </si>
-  <si>
-    <t>48,16%</t>
-  </si>
-  <si>
-    <t>52,22%</t>
-  </si>
-  <si>
-    <t>48,13%</t>
-  </si>
-  <si>
-    <t>56,55%</t>
-  </si>
-  <si>
-    <t>57,31%</t>
-  </si>
-  <si>
-    <t>53,85%</t>
-  </si>
-  <si>
-    <t>60,64%</t>
-  </si>
-  <si>
-    <t>54,84%</t>
-  </si>
-  <si>
-    <t>52,3%</t>
-  </si>
-  <si>
-    <t>57,57%</t>
-  </si>
-  <si>
-    <t>47,78%</t>
-  </si>
-  <si>
-    <t>43,45%</t>
-  </si>
-  <si>
-    <t>51,87%</t>
-  </si>
-  <si>
-    <t>42,69%</t>
-  </si>
-  <si>
-    <t>39,36%</t>
-  </si>
-  <si>
-    <t>46,15%</t>
-  </si>
-  <si>
-    <t>45,16%</t>
-  </si>
-  <si>
-    <t>42,43%</t>
-  </si>
-  <si>
-    <t>47,7%</t>
-  </si>
-  <si>
-    <t>48,98%</t>
-  </si>
-  <si>
-    <t>64,72%</t>
-  </si>
-  <si>
-    <t>62,88%</t>
-  </si>
-  <si>
-    <t>68,06%</t>
-  </si>
-  <si>
-    <t>58,83%</t>
-  </si>
-  <si>
-    <t>56,99%</t>
-  </si>
-  <si>
-    <t>61,03%</t>
-  </si>
-  <si>
-    <t>51,02%</t>
-  </si>
-  <si>
     <t>35,28%</t>
   </si>
   <si>
-    <t>31,94%</t>
-  </si>
-  <si>
-    <t>37,12%</t>
+    <t>31,76%</t>
+  </si>
+  <si>
+    <t>37,16%</t>
   </si>
   <si>
     <t>41,17%</t>
   </si>
   <si>
-    <t>38,97%</t>
-  </si>
-  <si>
-    <t>43,01%</t>
+    <t>38,95%</t>
+  </si>
+  <si>
+    <t>42,84%</t>
   </si>
 </sst>
 </file>
@@ -1350,7 +1338,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01A1B376-3347-4B7F-8A42-4B08CACDC0FC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C5C6CBB-783F-4D0F-A634-07D590CB8C7F}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1966,7 +1954,7 @@
         <v>3268</v>
       </c>
       <c r="N13" s="7">
-        <v>3307339</v>
+        <v>3307338</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>75</v>
@@ -2068,7 +2056,7 @@
         <v>6510</v>
       </c>
       <c r="N15" s="7">
-        <v>6654723</v>
+        <v>6654722</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2101,7 +2089,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB031408-E727-4F0C-8A40-9217140A7D97}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8EAB431-B58C-43F7-B853-09B5DF433B70}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2383,10 +2371,10 @@
         <v>107</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H7" s="7">
         <v>1003</v>
@@ -2395,13 +2383,13 @@
         <v>1087293</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M7" s="7">
         <v>1770</v>
@@ -2410,13 +2398,13 @@
         <v>1913258</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2431,13 +2419,13 @@
         <v>1134057</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>117</v>
-      </c>
       <c r="G8" s="7" t="s">
-        <v>118</v>
+        <v>74</v>
       </c>
       <c r="H8" s="7">
         <v>631</v>
@@ -2446,13 +2434,13 @@
         <v>669619</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M8" s="7">
         <v>1716</v>
@@ -2461,13 +2449,13 @@
         <v>1803676</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2535,13 +2523,13 @@
         <v>195864</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H10" s="7">
         <v>238</v>
@@ -2550,13 +2538,13 @@
         <v>268949</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M10" s="7">
         <v>408</v>
@@ -2565,13 +2553,13 @@
         <v>464814</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2586,13 +2574,13 @@
         <v>284468</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="H11" s="7">
         <v>173</v>
@@ -2601,13 +2589,13 @@
         <v>188705</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="M11" s="7">
         <v>440</v>
@@ -2616,13 +2604,13 @@
         <v>473172</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2690,13 +2678,13 @@
         <v>1722131</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H13" s="7">
         <v>2308</v>
@@ -2705,13 +2693,13 @@
         <v>2493660</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="M13" s="7">
         <v>3891</v>
@@ -2720,13 +2708,13 @@
         <v>4215791</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2741,13 +2729,13 @@
         <v>1692866</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="H14" s="7">
         <v>983</v>
@@ -2756,13 +2744,13 @@
         <v>1057669</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="M14" s="7">
         <v>2597</v>
@@ -2771,13 +2759,13 @@
         <v>2750535</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2852,7 +2840,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{734B7A60-511D-43AD-88C0-15702FA6E9D1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4ADA718-5526-4FD2-A3AC-CCA29589D8D2}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2869,7 +2857,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2976,13 +2964,13 @@
         <v>515590</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="H4" s="7">
         <v>745</v>
@@ -2991,13 +2979,13 @@
         <v>841159</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="M4" s="7">
         <v>1275</v>
@@ -3006,13 +2994,13 @@
         <v>1356749</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3027,13 +3015,13 @@
         <v>238757</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="H5" s="7">
         <v>147</v>
@@ -3042,13 +3030,13 @@
         <v>153501</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="M5" s="7">
         <v>379</v>
@@ -3057,13 +3045,13 @@
         <v>392258</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3131,13 +3119,13 @@
         <v>917243</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="H7" s="7">
         <v>1076</v>
@@ -3146,13 +3134,13 @@
         <v>1146737</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="M7" s="7">
         <v>1933</v>
@@ -3161,13 +3149,13 @@
         <v>2063980</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3182,13 +3170,13 @@
         <v>1159142</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="H8" s="7">
         <v>832</v>
@@ -3197,13 +3185,13 @@
         <v>841563</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="M8" s="7">
         <v>1927</v>
@@ -3212,13 +3200,13 @@
         <v>2000705</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3286,13 +3274,13 @@
         <v>245683</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="H10" s="7">
         <v>282</v>
@@ -3301,13 +3289,13 @@
         <v>302316</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="M10" s="7">
         <v>505</v>
@@ -3316,13 +3304,13 @@
         <v>547999</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3337,13 +3325,13 @@
         <v>301203</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="H11" s="7">
         <v>244</v>
@@ -3352,13 +3340,13 @@
         <v>246824</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="M11" s="7">
         <v>522</v>
@@ -3367,13 +3355,13 @@
         <v>548027</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3444,10 +3432,10 @@
         <v>75</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="H13" s="7">
         <v>2103</v>
@@ -3456,13 +3444,13 @@
         <v>2290212</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="M13" s="7">
         <v>3713</v>
@@ -3471,13 +3459,13 @@
         <v>3968729</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3495,10 +3483,10 @@
         <v>84</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="H14" s="7">
         <v>1223</v>
@@ -3507,13 +3495,13 @@
         <v>1241888</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="M14" s="7">
         <v>2828</v>
@@ -3522,13 +3510,13 @@
         <v>2940989</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3603,7 +3591,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26302C3C-668E-45D0-A2DA-006D385E0D01}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B55C3DF-B6E5-4044-8F77-C436784BDE0A}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3620,7 +3608,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3727,13 +3715,13 @@
         <v>381937</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="H4" s="7">
         <v>1209</v>
@@ -3742,13 +3730,13 @@
         <v>690001</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="M4" s="7">
         <v>1718</v>
@@ -3757,13 +3745,13 @@
         <v>1071938</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3778,13 +3766,13 @@
         <v>159697</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="H5" s="7">
         <v>216</v>
@@ -3793,13 +3781,13 @@
         <v>142548</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="M5" s="7">
         <v>398</v>
@@ -3808,13 +3796,13 @@
         <v>302245</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3882,13 +3870,13 @@
         <v>1029830</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="H7" s="7">
         <v>1849</v>
@@ -3897,13 +3885,13 @@
         <v>1357073</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="M7" s="7">
         <v>2942</v>
@@ -3912,13 +3900,13 @@
         <v>2386902</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3933,28 +3921,28 @@
         <v>1132192</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="H8" s="7">
         <v>1071</v>
       </c>
       <c r="I8" s="7">
-        <v>891722</v>
+        <v>891723</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="M8" s="7">
         <v>1970</v>
@@ -3963,13 +3951,13 @@
         <v>2023915</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3996,7 +3984,7 @@
         <v>2920</v>
       </c>
       <c r="I9" s="7">
-        <v>2248795</v>
+        <v>2248796</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4037,13 +4025,13 @@
         <v>351428</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="H10" s="7">
         <v>602</v>
@@ -4052,13 +4040,13 @@
         <v>409117</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="M10" s="7">
         <v>983</v>
@@ -4067,13 +4055,13 @@
         <v>760546</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4088,13 +4076,13 @@
         <v>321611</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="H11" s="7">
         <v>402</v>
@@ -4103,13 +4091,13 @@
         <v>304769</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="M11" s="7">
         <v>702</v>
@@ -4118,13 +4106,13 @@
         <v>626380</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4192,13 +4180,13 @@
         <v>1763195</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>142</v>
+        <v>281</v>
       </c>
       <c r="H13" s="7">
         <v>3660</v>
@@ -4207,13 +4195,13 @@
         <v>2456191</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="M13" s="7">
         <v>5643</v>
@@ -4222,13 +4210,13 @@
         <v>4219387</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4240,16 +4228,16 @@
         <v>1381</v>
       </c>
       <c r="D14" s="7">
-        <v>1613499</v>
+        <v>1613500</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>132</v>
+        <v>288</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="H14" s="7">
         <v>1689</v>
@@ -4258,13 +4246,13 @@
         <v>1339040</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="M14" s="7">
         <v>3070</v>
@@ -4273,13 +4261,13 @@
         <v>2952539</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4291,7 +4279,7 @@
         <v>3364</v>
       </c>
       <c r="D15" s="7">
-        <v>3376694</v>
+        <v>3376695</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/P16-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{16FE5622-B6EB-415C-A0A8-B349FD8D7BC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6D3CC657-8E7D-45DF-A194-6134731E64D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7A6C7D4C-BC54-4E39-8722-6C123B097886}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{9007C9E6-0B88-4A41-AB4E-73EF0F91A408}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="298">
   <si>
     <t>Población que ha utilizado algún tipo de medicamento en las últimas dos semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -719,214 +719,220 @@
     <t>Población que ha utilizado algún tipo de medicamento en las últimas dos semanas en 2023 (Tasa respuesta: 99,93%)</t>
   </si>
   <si>
-    <t>70,52%</t>
-  </si>
-  <si>
-    <t>66,61%</t>
-  </si>
-  <si>
-    <t>74,28%</t>
-  </si>
-  <si>
-    <t>82,88%</t>
-  </si>
-  <si>
-    <t>80,55%</t>
-  </si>
-  <si>
-    <t>85,15%</t>
-  </si>
-  <si>
-    <t>78,01%</t>
-  </si>
-  <si>
-    <t>75,72%</t>
-  </si>
-  <si>
-    <t>80,04%</t>
-  </si>
-  <si>
-    <t>29,48%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>33,39%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>21,99%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>47,63%</t>
-  </si>
-  <si>
-    <t>43,84%</t>
-  </si>
-  <si>
-    <t>50,29%</t>
-  </si>
-  <si>
-    <t>60,35%</t>
-  </si>
-  <si>
-    <t>57,43%</t>
-  </si>
-  <si>
-    <t>67,56%</t>
-  </si>
-  <si>
-    <t>54,11%</t>
-  </si>
-  <si>
-    <t>51,66%</t>
+    <t>70,45%</t>
+  </si>
+  <si>
+    <t>66,31%</t>
+  </si>
+  <si>
+    <t>74,34%</t>
+  </si>
+  <si>
+    <t>83,16%</t>
+  </si>
+  <si>
+    <t>80,91%</t>
+  </si>
+  <si>
+    <t>85,4%</t>
+  </si>
+  <si>
+    <t>78,0%</t>
+  </si>
+  <si>
+    <t>75,64%</t>
+  </si>
+  <si>
+    <t>80,06%</t>
+  </si>
+  <si>
+    <t>29,55%</t>
+  </si>
+  <si>
+    <t>25,66%</t>
+  </si>
+  <si>
+    <t>33,69%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>43,61%</t>
+  </si>
+  <si>
+    <t>31,3%</t>
+  </si>
+  <si>
+    <t>49,69%</t>
+  </si>
+  <si>
+    <t>63,08%</t>
   </si>
   <si>
     <t>57,98%</t>
   </si>
   <si>
-    <t>52,37%</t>
-  </si>
-  <si>
-    <t>49,71%</t>
-  </si>
-  <si>
-    <t>56,16%</t>
-  </si>
-  <si>
-    <t>39,65%</t>
-  </si>
-  <si>
-    <t>32,44%</t>
-  </si>
-  <si>
-    <t>42,57%</t>
-  </si>
-  <si>
-    <t>45,89%</t>
+    <t>74,15%</t>
+  </si>
+  <si>
+    <t>53,23%</t>
+  </si>
+  <si>
+    <t>44,72%</t>
+  </si>
+  <si>
+    <t>59,1%</t>
+  </si>
+  <si>
+    <t>56,39%</t>
+  </si>
+  <si>
+    <t>50,31%</t>
+  </si>
+  <si>
+    <t>68,7%</t>
+  </si>
+  <si>
+    <t>36,92%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
   </si>
   <si>
     <t>42,02%</t>
   </si>
   <si>
-    <t>48,34%</t>
-  </si>
-  <si>
-    <t>52,22%</t>
-  </si>
-  <si>
-    <t>47,97%</t>
-  </si>
-  <si>
-    <t>56,43%</t>
-  </si>
-  <si>
-    <t>57,31%</t>
-  </si>
-  <si>
-    <t>53,85%</t>
-  </si>
-  <si>
-    <t>60,4%</t>
-  </si>
-  <si>
-    <t>54,84%</t>
-  </si>
-  <si>
-    <t>52,21%</t>
-  </si>
-  <si>
-    <t>57,52%</t>
-  </si>
-  <si>
-    <t>47,78%</t>
-  </si>
-  <si>
-    <t>43,57%</t>
-  </si>
-  <si>
-    <t>52,03%</t>
-  </si>
-  <si>
-    <t>42,69%</t>
-  </si>
-  <si>
-    <t>39,6%</t>
-  </si>
-  <si>
-    <t>46,15%</t>
-  </si>
-  <si>
-    <t>45,16%</t>
-  </si>
-  <si>
-    <t>42,48%</t>
-  </si>
-  <si>
-    <t>47,79%</t>
+    <t>46,77%</t>
+  </si>
+  <si>
+    <t>40,9%</t>
+  </si>
+  <si>
+    <t>55,28%</t>
+  </si>
+  <si>
+    <t>52,68%</t>
+  </si>
+  <si>
+    <t>48,17%</t>
+  </si>
+  <si>
+    <t>57,1%</t>
+  </si>
+  <si>
+    <t>57,77%</t>
+  </si>
+  <si>
+    <t>54,35%</t>
+  </si>
+  <si>
+    <t>60,84%</t>
+  </si>
+  <si>
+    <t>55,26%</t>
+  </si>
+  <si>
+    <t>52,5%</t>
+  </si>
+  <si>
+    <t>58,04%</t>
+  </si>
+  <si>
+    <t>47,32%</t>
+  </si>
+  <si>
+    <t>42,9%</t>
+  </si>
+  <si>
+    <t>51,83%</t>
+  </si>
+  <si>
+    <t>42,23%</t>
+  </si>
+  <si>
+    <t>39,16%</t>
+  </si>
+  <si>
+    <t>45,65%</t>
+  </si>
+  <si>
+    <t>44,74%</t>
+  </si>
+  <si>
+    <t>41,96%</t>
+  </si>
+  <si>
+    <t>47,5%</t>
   </si>
   <si>
     <t>49,32%</t>
   </si>
   <si>
-    <t>54,2%</t>
-  </si>
-  <si>
-    <t>64,72%</t>
-  </si>
-  <si>
-    <t>62,84%</t>
-  </si>
-  <si>
-    <t>68,24%</t>
-  </si>
-  <si>
-    <t>58,83%</t>
-  </si>
-  <si>
-    <t>57,16%</t>
-  </si>
-  <si>
-    <t>61,05%</t>
-  </si>
-  <si>
-    <t>45,8%</t>
+    <t>38,94%</t>
+  </si>
+  <si>
+    <t>53,75%</t>
+  </si>
+  <si>
+    <t>66,26%</t>
+  </si>
+  <si>
+    <t>63,37%</t>
+  </si>
+  <si>
+    <t>72,47%</t>
+  </si>
+  <si>
+    <t>58,02%</t>
+  </si>
+  <si>
+    <t>51,33%</t>
+  </si>
+  <si>
+    <t>61,52%</t>
   </si>
   <si>
     <t>50,68%</t>
   </si>
   <si>
-    <t>35,28%</t>
-  </si>
-  <si>
-    <t>31,76%</t>
-  </si>
-  <si>
-    <t>37,16%</t>
-  </si>
-  <si>
-    <t>41,17%</t>
-  </si>
-  <si>
-    <t>38,95%</t>
-  </si>
-  <si>
-    <t>42,84%</t>
+    <t>46,25%</t>
+  </si>
+  <si>
+    <t>61,06%</t>
+  </si>
+  <si>
+    <t>33,74%</t>
+  </si>
+  <si>
+    <t>27,53%</t>
+  </si>
+  <si>
+    <t>36,63%</t>
+  </si>
+  <si>
+    <t>41,98%</t>
+  </si>
+  <si>
+    <t>38,48%</t>
+  </si>
+  <si>
+    <t>48,67%</t>
   </si>
 </sst>
 </file>
@@ -1338,7 +1344,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C5C6CBB-783F-4D0F-A634-07D590CB8C7F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA7E9733-8DCC-4A3F-B727-D6A185626294}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1489,7 +1495,7 @@
         <v>1634</v>
       </c>
       <c r="N4" s="7">
-        <v>1632535</v>
+        <v>1632534</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1591,7 +1597,7 @@
         <v>2329</v>
       </c>
       <c r="N6" s="7">
-        <v>2346836</v>
+        <v>2346835</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1695,7 +1701,7 @@
         <v>1980</v>
       </c>
       <c r="N8" s="7">
-        <v>2032046</v>
+        <v>2032045</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1746,7 +1752,7 @@
         <v>3202</v>
       </c>
       <c r="N9" s="7">
-        <v>3280068</v>
+        <v>3280067</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1939,7 +1945,7 @@
         <v>1933</v>
       </c>
       <c r="I13" s="7">
-        <v>1979476</v>
+        <v>1979475</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>72</v>
@@ -2041,7 +2047,7 @@
         <v>3297</v>
       </c>
       <c r="I15" s="7">
-        <v>3379198</v>
+        <v>3379197</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2089,7 +2095,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8EAB431-B58C-43F7-B853-09B5DF433B70}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8E3837C-CCAB-4D28-86EF-C08F1FEA34C4}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2840,7 +2846,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4ADA718-5526-4FD2-A3AC-CCA29589D8D2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36372708-5886-47DB-B683-58A96B3F4CBA}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3301,7 +3307,7 @@
         <v>505</v>
       </c>
       <c r="N10" s="7">
-        <v>547999</v>
+        <v>548000</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>198</v>
@@ -3403,7 +3409,7 @@
         <v>1027</v>
       </c>
       <c r="N12" s="7">
-        <v>1096026</v>
+        <v>1096027</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3591,7 +3597,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B55C3DF-B6E5-4044-8F77-C436784BDE0A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{670FA7BF-60B6-4C6D-A96D-35AA297C46AB}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3712,7 +3718,7 @@
         <v>509</v>
       </c>
       <c r="D4" s="7">
-        <v>381937</v>
+        <v>362797</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>226</v>
@@ -3727,7 +3733,7 @@
         <v>1209</v>
       </c>
       <c r="I4" s="7">
-        <v>690001</v>
+        <v>625858</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>229</v>
@@ -3742,7 +3748,7 @@
         <v>1718</v>
       </c>
       <c r="N4" s="7">
-        <v>1071938</v>
+        <v>988655</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>232</v>
@@ -3763,7 +3769,7 @@
         <v>182</v>
       </c>
       <c r="D5" s="7">
-        <v>159697</v>
+        <v>152141</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>235</v>
@@ -3778,7 +3784,7 @@
         <v>216</v>
       </c>
       <c r="I5" s="7">
-        <v>142548</v>
+        <v>126770</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>238</v>
@@ -3793,7 +3799,7 @@
         <v>398</v>
       </c>
       <c r="N5" s="7">
-        <v>302245</v>
+        <v>278911</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>241</v>
@@ -3814,7 +3820,7 @@
         <v>691</v>
       </c>
       <c r="D6" s="7">
-        <v>541634</v>
+        <v>514938</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3829,7 +3835,7 @@
         <v>1425</v>
       </c>
       <c r="I6" s="7">
-        <v>832549</v>
+        <v>752628</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3844,7 +3850,7 @@
         <v>2116</v>
       </c>
       <c r="N6" s="7">
-        <v>1374183</v>
+        <v>1267566</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3867,7 +3873,7 @@
         <v>1093</v>
       </c>
       <c r="D7" s="7">
-        <v>1029830</v>
+        <v>998908</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>244</v>
@@ -3882,7 +3888,7 @@
         <v>1849</v>
       </c>
       <c r="I7" s="7">
-        <v>1357073</v>
+        <v>1411180</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>247</v>
@@ -3897,7 +3903,7 @@
         <v>2942</v>
       </c>
       <c r="N7" s="7">
-        <v>2386902</v>
+        <v>2410087</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>250</v>
@@ -3918,7 +3924,7 @@
         <v>899</v>
       </c>
       <c r="D8" s="7">
-        <v>1132192</v>
+        <v>1291419</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>253</v>
@@ -3933,7 +3939,7 @@
         <v>1071</v>
       </c>
       <c r="I8" s="7">
-        <v>891723</v>
+        <v>825965</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>256</v>
@@ -3948,7 +3954,7 @@
         <v>1970</v>
       </c>
       <c r="N8" s="7">
-        <v>2023915</v>
+        <v>2117385</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>259</v>
@@ -3969,7 +3975,7 @@
         <v>1992</v>
       </c>
       <c r="D9" s="7">
-        <v>2162022</v>
+        <v>2290327</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3984,7 +3990,7 @@
         <v>2920</v>
       </c>
       <c r="I9" s="7">
-        <v>2248796</v>
+        <v>2237145</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3999,7 +4005,7 @@
         <v>4912</v>
       </c>
       <c r="N9" s="7">
-        <v>4410817</v>
+        <v>4527472</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4022,7 +4028,7 @@
         <v>381</v>
       </c>
       <c r="D10" s="7">
-        <v>351428</v>
+        <v>340665</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>262</v>
@@ -4037,7 +4043,7 @@
         <v>602</v>
       </c>
       <c r="I10" s="7">
-        <v>409117</v>
+        <v>381569</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>265</v>
@@ -4052,7 +4058,7 @@
         <v>983</v>
       </c>
       <c r="N10" s="7">
-        <v>760546</v>
+        <v>722234</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>268</v>
@@ -4073,7 +4079,7 @@
         <v>300</v>
       </c>
       <c r="D11" s="7">
-        <v>321611</v>
+        <v>305958</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>271</v>
@@ -4088,7 +4094,7 @@
         <v>402</v>
       </c>
       <c r="I11" s="7">
-        <v>304769</v>
+        <v>278894</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>274</v>
@@ -4103,7 +4109,7 @@
         <v>702</v>
       </c>
       <c r="N11" s="7">
-        <v>626380</v>
+        <v>584852</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>277</v>
@@ -4124,7 +4130,7 @@
         <v>681</v>
       </c>
       <c r="D12" s="7">
-        <v>673039</v>
+        <v>646623</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4139,7 +4145,7 @@
         <v>1004</v>
       </c>
       <c r="I12" s="7">
-        <v>713886</v>
+        <v>660463</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4154,7 +4160,7 @@
         <v>1685</v>
       </c>
       <c r="N12" s="7">
-        <v>1386926</v>
+        <v>1307086</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4177,46 +4183,46 @@
         <v>1983</v>
       </c>
       <c r="D13" s="7">
-        <v>1763195</v>
+        <v>1702370</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>262</v>
+        <v>280</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H13" s="7">
         <v>3660</v>
       </c>
       <c r="I13" s="7">
-        <v>2456191</v>
+        <v>2418607</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M13" s="7">
         <v>5643</v>
       </c>
       <c r="N13" s="7">
-        <v>4219387</v>
+        <v>4120978</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4228,46 +4234,46 @@
         <v>1381</v>
       </c>
       <c r="D14" s="7">
-        <v>1613500</v>
+        <v>1749519</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>271</v>
+        <v>289</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="H14" s="7">
         <v>1689</v>
       </c>
       <c r="I14" s="7">
-        <v>1339040</v>
+        <v>1231629</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="M14" s="7">
         <v>3070</v>
       </c>
       <c r="N14" s="7">
-        <v>2952539</v>
+        <v>2981147</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4279,7 +4285,7 @@
         <v>3364</v>
       </c>
       <c r="D15" s="7">
-        <v>3376695</v>
+        <v>3451889</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4294,7 +4300,7 @@
         <v>5349</v>
       </c>
       <c r="I15" s="7">
-        <v>3795231</v>
+        <v>3650236</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4309,7 +4315,7 @@
         <v>8713</v>
       </c>
       <c r="N15" s="7">
-        <v>7171926</v>
+        <v>7102125</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
